--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$H$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$L$144</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$C$1:$L$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$N$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$C$1:$L$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$N$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$C$1:$L$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$K$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$R$22</definedName>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4655" uniqueCount="1993">
   <si>
     <t>Id</t>
   </si>
@@ -6321,6 +6321,36 @@
   </si>
   <si>
     <t>ORCID</t>
+  </si>
+  <si>
+    <t>Author_001</t>
+  </si>
+  <si>
+    <t>Author 001</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>An author</t>
+  </si>
+  <si>
+    <t>An organization</t>
+  </si>
+  <si>
+    <t>author@organization.edu</t>
+  </si>
+  <si>
+    <t>https://www.organization.edu</t>
+  </si>
+  <si>
+    <t>Author_001 address</t>
+  </si>
+  <si>
+    <t>0123-4567-8901-2345</t>
+  </si>
+  <si>
+    <t>Author_001 comments</t>
   </si>
   <si>
     <t>Target</t>
@@ -6352,11 +6382,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6379,6 +6409,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -6390,55 +6428,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -6449,23 +6441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6480,6 +6458,13 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6487,8 +6472,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6503,7 +6489,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6511,6 +6512,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6525,7 +6555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6559,7 +6589,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6571,7 +6619,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6583,13 +6655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6601,7 +6667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6619,19 +6691,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6643,13 +6721,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6661,79 +6757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6758,6 +6788,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6810,35 +6869,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -6847,136 +6877,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6988,13 +7018,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7022,13 +7055,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7450,9 +7480,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.3916666666667" style="3"/>
-    <col min="2" max="2" width="51.525" style="3"/>
-    <col min="3" max="1025" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="13.3916666666667" style="4"/>
+    <col min="2" max="2" width="51.525" style="4"/>
+    <col min="3" max="1025" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:2">
@@ -7496,7 +7526,7 @@
       </c>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7515,7 +7545,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7523,7 +7553,7 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7531,7 +7561,7 @@
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7579,11 +7609,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="3"/>
-    <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="3" customWidth="1"/>
-    <col min="5" max="1024" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="4"/>
+    <col min="3" max="3" width="25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="5" max="1024" width="8.78333333333333" style="4"/>
     <col min="1025" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
@@ -7627,7 +7657,7 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1"/>
@@ -7668,24 +7698,24 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7714,14 +7744,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.9166666666667" style="3"/>
-    <col min="2" max="2" width="16.3916666666667" style="3"/>
-    <col min="3" max="3" width="9.10833333333333" style="3"/>
-    <col min="4" max="4" width="66.2" style="3"/>
-    <col min="5" max="6" width="8.78333333333333" style="3"/>
-    <col min="7" max="7" width="9.375" style="3"/>
-    <col min="8" max="1027" width="8.78333333333333" style="3"/>
-    <col min="1028" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="34.9166666666667" style="4"/>
+    <col min="2" max="2" width="16.3916666666667" style="4"/>
+    <col min="3" max="3" width="9.10833333333333" style="4"/>
+    <col min="4" max="4" width="66.2" style="4"/>
+    <col min="5" max="6" width="8.78333333333333" style="4"/>
+    <col min="7" max="7" width="9.375" style="4"/>
+    <col min="8" max="1027" width="8.78333333333333" style="4"/>
+    <col min="1028" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -7796,7 +7826,7 @@
       <c r="I2" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="1"/>
@@ -12642,7 +12672,7 @@
       <c r="C177" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="4" t="s">
         <v>1345</v>
       </c>
       <c r="E177" s="1">
@@ -12651,13 +12681,13 @@
       <c r="F177" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G177" s="9">
+      <c r="G177" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H177" s="9">
+      <c r="H177" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I177" s="3" t="s">
+      <c r="I177" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J177" s="16"/>
@@ -12672,7 +12702,7 @@
       <c r="C178" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="E178" s="1">
@@ -12681,13 +12711,13 @@
       <c r="F178" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G178" s="9">
+      <c r="G178" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H178" s="9">
+      <c r="H178" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I178" s="3" t="s">
+      <c r="I178" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J178" s="16"/>
@@ -12702,7 +12732,7 @@
       <c r="C179" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="4" t="s">
         <v>1351</v>
       </c>
       <c r="E179" s="1">
@@ -12711,13 +12741,13 @@
       <c r="F179" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G179" s="9">
+      <c r="G179" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H179" s="9">
+      <c r="H179" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I179" s="3" t="s">
+      <c r="I179" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J179" s="16"/>
@@ -12732,7 +12762,7 @@
       <c r="C180" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="4" t="s">
         <v>1354</v>
       </c>
       <c r="E180" s="1">
@@ -12741,13 +12771,13 @@
       <c r="F180" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G180" s="9">
+      <c r="G180" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H180" s="9">
+      <c r="H180" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I180" s="3" t="s">
+      <c r="I180" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J180" s="16"/>
@@ -12762,7 +12792,7 @@
       <c r="C181" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="4" t="s">
         <v>1357</v>
       </c>
       <c r="E181" s="1">
@@ -12771,13 +12801,13 @@
       <c r="F181" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G181" s="9">
+      <c r="G181" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H181" s="9">
+      <c r="H181" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I181" s="3" t="s">
+      <c r="I181" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J181" s="16"/>
@@ -12792,7 +12822,7 @@
       <c r="C182" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="4" t="s">
         <v>1360</v>
       </c>
       <c r="E182" s="1">
@@ -12801,13 +12831,13 @@
       <c r="F182" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G182" s="9">
+      <c r="G182" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H182" s="9">
+      <c r="H182" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I182" s="3" t="s">
+      <c r="I182" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J182" s="16"/>
@@ -12822,7 +12852,7 @@
       <c r="C183" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="4" t="s">
         <v>1363</v>
       </c>
       <c r="E183" s="1">
@@ -12831,13 +12861,13 @@
       <c r="F183" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G183" s="9">
+      <c r="G183" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H183" s="9">
+      <c r="H183" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I183" s="3" t="s">
+      <c r="I183" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J183" s="16"/>
@@ -12852,7 +12882,7 @@
       <c r="C184" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="4" t="s">
         <v>1366</v>
       </c>
       <c r="E184" s="1">
@@ -12861,13 +12891,13 @@
       <c r="F184" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G184" s="9">
+      <c r="G184" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H184" s="9">
+      <c r="H184" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I184" s="3" t="s">
+      <c r="I184" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J184" s="16"/>
@@ -12882,7 +12912,7 @@
       <c r="C185" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="4" t="s">
         <v>1369</v>
       </c>
       <c r="E185" s="1">
@@ -12891,13 +12921,13 @@
       <c r="F185" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G185" s="9">
+      <c r="G185" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H185" s="9">
+      <c r="H185" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I185" s="3" t="s">
+      <c r="I185" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J185" s="16"/>
@@ -12912,7 +12942,7 @@
       <c r="C186" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="E186" s="1">
@@ -12921,13 +12951,13 @@
       <c r="F186" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G186" s="9">
+      <c r="G186" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H186" s="9">
+      <c r="H186" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I186" s="3" t="s">
+      <c r="I186" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J186" s="16"/>
@@ -12942,7 +12972,7 @@
       <c r="C187" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="4" t="s">
         <v>1375</v>
       </c>
       <c r="E187" s="1">
@@ -12951,13 +12981,13 @@
       <c r="F187" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G187" s="9">
+      <c r="G187" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H187" s="9">
+      <c r="H187" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I187" s="3" t="s">
+      <c r="I187" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J187" s="16"/>
@@ -12972,7 +13002,7 @@
       <c r="C188" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="4" t="s">
         <v>1378</v>
       </c>
       <c r="E188" s="1">
@@ -12981,13 +13011,13 @@
       <c r="F188" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G188" s="9">
+      <c r="G188" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H188" s="9">
+      <c r="H188" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I188" s="3" t="s">
+      <c r="I188" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J188" s="16"/>
@@ -13002,7 +13032,7 @@
       <c r="C189" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="4" t="s">
         <v>1381</v>
       </c>
       <c r="E189" s="1">
@@ -13011,13 +13041,13 @@
       <c r="F189" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G189" s="9">
+      <c r="G189" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H189" s="9">
+      <c r="H189" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I189" s="3" t="s">
+      <c r="I189" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J189" s="16"/>
@@ -13032,7 +13062,7 @@
       <c r="C190" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="4" t="s">
         <v>1384</v>
       </c>
       <c r="E190" s="1">
@@ -13041,13 +13071,13 @@
       <c r="F190" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G190" s="9">
+      <c r="G190" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H190" s="9">
+      <c r="H190" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I190" s="3" t="s">
+      <c r="I190" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J190" s="16"/>
@@ -13062,7 +13092,7 @@
       <c r="C191" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="4" t="s">
         <v>1387</v>
       </c>
       <c r="E191" s="1">
@@ -13071,13 +13101,13 @@
       <c r="F191" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G191" s="9">
+      <c r="G191" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H191" s="9">
+      <c r="H191" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I191" s="3" t="s">
+      <c r="I191" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J191" s="16"/>
@@ -13092,7 +13122,7 @@
       <c r="C192" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="4" t="s">
         <v>1390</v>
       </c>
       <c r="E192" s="1">
@@ -13101,13 +13131,13 @@
       <c r="F192" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G192" s="9">
+      <c r="G192" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H192" s="9">
+      <c r="H192" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I192" s="3" t="s">
+      <c r="I192" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J192" s="16"/>
@@ -13122,7 +13152,7 @@
       <c r="C193" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="4" t="s">
         <v>1393</v>
       </c>
       <c r="E193" s="1">
@@ -13131,13 +13161,13 @@
       <c r="F193" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G193" s="9">
+      <c r="G193" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H193" s="9">
+      <c r="H193" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I193" s="3" t="s">
+      <c r="I193" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J193" s="16"/>
@@ -13152,7 +13182,7 @@
       <c r="C194" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="4" t="s">
         <v>1396</v>
       </c>
       <c r="E194" s="1">
@@ -13161,13 +13191,13 @@
       <c r="F194" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G194" s="9">
+      <c r="G194" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H194" s="9">
+      <c r="H194" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I194" s="3" t="s">
+      <c r="I194" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J194" s="16"/>
@@ -13182,7 +13212,7 @@
       <c r="C195" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="4" t="s">
         <v>1399</v>
       </c>
       <c r="E195" s="1">
@@ -13191,13 +13221,13 @@
       <c r="F195" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G195" s="9">
+      <c r="G195" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H195" s="9">
+      <c r="H195" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I195" s="3" t="s">
+      <c r="I195" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J195" s="16"/>
@@ -13212,7 +13242,7 @@
       <c r="C196" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="4" t="s">
         <v>1402</v>
       </c>
       <c r="E196" s="1">
@@ -13221,13 +13251,13 @@
       <c r="F196" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G196" s="9">
+      <c r="G196" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H196" s="9">
+      <c r="H196" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I196" s="3" t="s">
+      <c r="I196" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J196" s="16"/>
@@ -13242,7 +13272,7 @@
       <c r="C197" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="4" t="s">
         <v>1405</v>
       </c>
       <c r="E197" s="1">
@@ -13251,13 +13281,13 @@
       <c r="F197" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G197" s="9">
+      <c r="G197" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H197" s="9">
+      <c r="H197" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I197" s="3" t="s">
+      <c r="I197" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J197" s="16"/>
@@ -13272,7 +13302,7 @@
       <c r="C198" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="E198" s="1">
@@ -13281,13 +13311,13 @@
       <c r="F198" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G198" s="9">
+      <c r="G198" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H198" s="9">
+      <c r="H198" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I198" s="3" t="s">
+      <c r="I198" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J198" s="16"/>
@@ -13302,7 +13332,7 @@
       <c r="C199" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="4" t="s">
         <v>1411</v>
       </c>
       <c r="E199" s="1">
@@ -13311,13 +13341,13 @@
       <c r="F199" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G199" s="9">
+      <c r="G199" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H199" s="9">
+      <c r="H199" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I199" s="3" t="s">
+      <c r="I199" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J199" s="16"/>
@@ -13332,7 +13362,7 @@
       <c r="C200" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="E200" s="1">
@@ -13341,13 +13371,13 @@
       <c r="F200" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G200" s="9">
+      <c r="G200" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H200" s="9">
+      <c r="H200" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I200" s="3" t="s">
+      <c r="I200" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J200" s="16"/>
@@ -13362,7 +13392,7 @@
       <c r="C201" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="4" t="s">
         <v>1417</v>
       </c>
       <c r="E201" s="1">
@@ -13371,13 +13401,13 @@
       <c r="F201" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G201" s="9">
+      <c r="G201" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H201" s="9">
+      <c r="H201" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I201" s="3" t="s">
+      <c r="I201" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J201" s="16"/>
@@ -13392,7 +13422,7 @@
       <c r="C202" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="4" t="s">
         <v>1420</v>
       </c>
       <c r="E202" s="1">
@@ -13401,13 +13431,13 @@
       <c r="F202" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G202" s="9">
+      <c r="G202" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H202" s="9">
+      <c r="H202" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I202" s="3" t="s">
+      <c r="I202" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J202" s="16"/>
@@ -13422,7 +13452,7 @@
       <c r="C203" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="4" t="s">
         <v>1423</v>
       </c>
       <c r="E203" s="1">
@@ -13431,13 +13461,13 @@
       <c r="F203" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G203" s="9">
+      <c r="G203" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H203" s="9">
+      <c r="H203" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I203" s="3" t="s">
+      <c r="I203" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J203" s="16"/>
@@ -13452,7 +13482,7 @@
       <c r="C204" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="4" t="s">
         <v>1426</v>
       </c>
       <c r="E204" s="1">
@@ -13461,13 +13491,13 @@
       <c r="F204" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G204" s="9">
+      <c r="G204" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H204" s="9">
+      <c r="H204" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I204" s="3" t="s">
+      <c r="I204" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J204" s="16"/>
@@ -13482,7 +13512,7 @@
       <c r="C205" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="4" t="s">
         <v>1429</v>
       </c>
       <c r="E205" s="1">
@@ -13491,13 +13521,13 @@
       <c r="F205" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G205" s="9">
+      <c r="G205" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H205" s="9">
+      <c r="H205" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I205" s="3" t="s">
+      <c r="I205" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J205" s="16"/>
@@ -13512,7 +13542,7 @@
       <c r="C206" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="4" t="s">
         <v>1432</v>
       </c>
       <c r="E206" s="1">
@@ -13521,13 +13551,13 @@
       <c r="F206" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G206" s="9">
+      <c r="G206" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H206" s="9">
+      <c r="H206" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I206" s="3" t="s">
+      <c r="I206" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J206" s="16"/>
@@ -13542,7 +13572,7 @@
       <c r="C207" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="4" t="s">
         <v>1435</v>
       </c>
       <c r="E207" s="1">
@@ -13551,19 +13581,19 @@
       <c r="F207" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G207" s="9">
+      <c r="G207" s="10">
         <v>-1.667e-6</v>
       </c>
-      <c r="H207" s="9">
+      <c r="H207" s="10">
         <v>1.667e-6</v>
       </c>
-      <c r="I207" s="3" t="s">
+      <c r="I207" s="4" t="s">
         <v>818</v>
       </c>
       <c r="J207" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N176">
+  <autoFilter ref="A1:N207">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="equal" val="Metabolism"/>
@@ -13585,7 +13615,7 @@
   <sheetPr/>
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -13605,7 +13635,7 @@
     <col min="8" max="8" width="8.78333333333333" style="1"/>
     <col min="9" max="10" width="22.6" style="1"/>
     <col min="11" max="1026" width="8.78333333333333" style="1"/>
-    <col min="1027" max="16384" width="9" style="8"/>
+    <col min="1027" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
@@ -13662,7 +13692,7 @@
       <c r="G2" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -16222,11 +16252,9 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>1708</v>
       </c>
@@ -16256,11 +16284,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="14"/>
-    <col min="2" max="2" width="26.1416666666667" style="14"/>
-    <col min="3" max="9" width="11.25" style="14"/>
-    <col min="10" max="10" width="10.3916666666667" style="14"/>
-    <col min="11" max="1026" width="8.78333333333333" style="14"/>
+    <col min="1" max="1" width="20.25" style="15"/>
+    <col min="2" max="2" width="26.1416666666667" style="15"/>
+    <col min="3" max="9" width="11.25" style="15"/>
+    <col min="10" max="10" width="10.3916666666667" style="15"/>
+    <col min="11" max="1026" width="8.78333333333333" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
@@ -16296,47 +16324,47 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1711</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>1712</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>1713</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>1714</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>1715</v>
       </c>
       <c r="J3" s="1"/>
@@ -16363,39 +16391,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.3916666666667" style="10"/>
-    <col min="3" max="3" width="20.7833333333333" style="10"/>
-    <col min="4" max="4" width="9.10833333333333" style="10"/>
-    <col min="5" max="5" width="10.3916666666667" style="10"/>
-    <col min="6" max="6" width="9.10833333333333" style="10"/>
-    <col min="7" max="10" width="8.78333333333333" style="10"/>
-    <col min="11" max="11" width="16.5" style="10"/>
+    <col min="1" max="1" width="38.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.3916666666667" style="11"/>
+    <col min="3" max="3" width="20.7833333333333" style="11"/>
+    <col min="4" max="4" width="9.10833333333333" style="11"/>
+    <col min="5" max="5" width="10.3916666666667" style="11"/>
+    <col min="6" max="6" width="9.10833333333333" style="11"/>
+    <col min="7" max="10" width="8.78333333333333" style="11"/>
+    <col min="11" max="11" width="16.5" style="11"/>
     <col min="12" max="1023" width="8.78333333333333" style="1"/>
-    <col min="1024" max="1024" width="8.78333333333333" style="3"/>
-    <col min="1025" max="1026" width="8.78333333333333" style="7"/>
+    <col min="1024" max="1024" width="8.78333333333333" style="4"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>1716</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>1717</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -16404,720 +16432,720 @@
       <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1718</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1719</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="14">
         <v>-34190.38</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>1720</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>1721</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>1722</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1723</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>1035619</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>1724</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1725</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>-40890.38</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1726</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>1727</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>-23190.38</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>1720</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>1728</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>1729</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>-24290.38</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>1730</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>1731</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>-1101856</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>1732</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>1733</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>1098019</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>1734</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>1735</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>-1164906</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>1736</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>1737</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>-22290.38</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>1738</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>1739</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>581419.2</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>1740</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>1741</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>-24690.38</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>1742</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>1743</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>-22690.38</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>1744</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>1745</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <v>-31190.38</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>1746</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>1747</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <v>1052899</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>1748</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>1749</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <v>-1728316</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>1750</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>1751</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="14">
         <v>-1521617000</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="14">
         <v>4972350</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>1754</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="14">
         <v>-21590.38</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="20" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>1756</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>1757</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="14">
         <v>-29290.38</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="21" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>1758</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>1759</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="14">
         <v>-41190.38</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="22" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>1760</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>1761</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="14">
         <v>-21990.38</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="23" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>1762</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>1763</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="14">
         <v>-21390.38</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="24" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>1764</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>1765</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="14">
         <v>-23890.38</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="25" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>1766</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>1767</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="14">
         <v>471096.2</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="26" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>1768</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>1769</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="14">
         <v>4381069</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="27" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>1770</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>1771</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="14">
         <v>-34390.38</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="28" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>1772</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>1773</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="14">
         <v>-44490.38</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="29" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>1774</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>1775</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="14">
         <v>-36190.38</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="30" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>1776</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>1777</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="14">
         <v>-22190.38</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="31" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>1778</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>1779</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="14">
         <v>-21990.38</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="32" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>1780</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>1781</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="14">
         <v>1066339</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="33" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="14">
         <v>-1132896</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="34" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>1784</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>1785</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="14">
         <v>-33790.38</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="35" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>1786</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>1769</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>1713</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="14">
         <v>4381069</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="36" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>1787</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>1781</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>1713</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="14">
         <v>1066339</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="14" t="s">
         <v>1720</v>
       </c>
     </row>
@@ -17148,7 +17176,7 @@
     <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1"/>
     <col min="5" max="1026" width="8.78333333333333" style="1"/>
-    <col min="1027" max="16384" width="9" style="8"/>
+    <col min="1027" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -17190,7 +17218,7 @@
       <c r="A2" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -17230,7 +17258,7 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -17274,35 +17302,35 @@
       <c r="A8" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="D9" s="1">
         <v>-1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17312,14 +17340,14 @@
       <c r="F10" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17329,14 +17357,14 @@
       <c r="F11" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17346,14 +17374,14 @@
       <c r="F12" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17363,14 +17391,14 @@
       <c r="F13" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17380,14 +17408,14 @@
       <c r="F14" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17397,14 +17425,14 @@
       <c r="F15" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17414,8 +17442,8 @@
       <c r="F16" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
@@ -17433,13 +17461,13 @@
       <c r="F17" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17449,8 +17477,8 @@
       <c r="F18" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="1" t="s">
@@ -17468,7 +17496,7 @@
       <c r="F19" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
@@ -17514,7 +17542,7 @@
       <c r="A22" s="1" t="s">
         <v>1822</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17524,14 +17552,14 @@
       <c r="F22" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17541,14 +17569,14 @@
       <c r="F23" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17558,14 +17586,14 @@
       <c r="F24" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17575,8 +17603,8 @@
       <c r="F25" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
@@ -17622,7 +17650,7 @@
       <c r="A28" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17632,8 +17660,8 @@
       <c r="F28" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="1" t="s">
@@ -17659,7 +17687,7 @@
       <c r="A30" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17669,8 +17697,8 @@
       <c r="F30" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="1" t="s">
@@ -17716,7 +17744,7 @@
       <c r="A33" s="1" t="s">
         <v>1843</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17726,14 +17754,14 @@
       <c r="F33" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17743,14 +17771,14 @@
       <c r="F34" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17760,8 +17788,8 @@
       <c r="F35" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" customHeight="1" spans="1:10">
       <c r="A36" s="1" t="s">
@@ -17907,7 +17935,7 @@
       <c r="A43" s="1" t="s">
         <v>1867</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17917,14 +17945,14 @@
       <c r="F43" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" customHeight="1" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>1868</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17934,8 +17962,8 @@
       <c r="F44" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" customHeight="1" spans="1:10">
       <c r="A45" s="1" t="s">
@@ -17961,7 +17989,7 @@
       <c r="A46" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17971,14 +17999,14 @@
       <c r="F46" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" customHeight="1" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
         <v>1803</v>
       </c>
@@ -17988,8 +18016,8 @@
       <c r="F47" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" customHeight="1" spans="1:10">
       <c r="A48" s="1" t="s">
@@ -18055,7 +18083,7 @@
       <c r="A51" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18065,8 +18093,8 @@
       <c r="F51" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" customHeight="1" spans="1:10">
       <c r="A52" s="1" t="s">
@@ -18092,7 +18120,7 @@
       <c r="A53" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18102,14 +18130,14 @@
       <c r="F53" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" customHeight="1" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>1888</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18119,14 +18147,14 @@
       <c r="F54" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>1889</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18136,14 +18164,14 @@
       <c r="F55" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" customHeight="1" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18153,14 +18181,14 @@
       <c r="F56" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" customHeight="1" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>1891</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18170,14 +18198,14 @@
       <c r="F57" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" customHeight="1" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18187,14 +18215,14 @@
       <c r="F58" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" customHeight="1" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>1893</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18204,8 +18232,8 @@
       <c r="F59" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" customHeight="1" spans="1:10">
       <c r="A60" s="1" t="s">
@@ -18271,7 +18299,7 @@
       <c r="A63" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18281,14 +18309,14 @@
       <c r="F63" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" customHeight="1" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18298,14 +18326,14 @@
       <c r="F64" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" customHeight="1" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18315,8 +18343,8 @@
       <c r="F65" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" customHeight="1" spans="1:6">
       <c r="A66" s="1" t="s">
@@ -18336,7 +18364,7 @@
       <c r="A67" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18346,14 +18374,14 @@
       <c r="F67" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" customHeight="1" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>1909</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18363,14 +18391,14 @@
       <c r="F68" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" customHeight="1" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18380,14 +18408,14 @@
       <c r="F69" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" customHeight="1" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18397,14 +18425,14 @@
       <c r="F70" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" customHeight="1" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18414,14 +18442,14 @@
       <c r="F71" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" customHeight="1" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18431,14 +18459,14 @@
       <c r="F72" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" customHeight="1" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>1914</v>
       </c>
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18448,14 +18476,14 @@
       <c r="F73" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" customHeight="1" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>1915</v>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18465,14 +18493,14 @@
       <c r="F74" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" customHeight="1" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18482,14 +18510,14 @@
       <c r="F75" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" customHeight="1" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18499,14 +18527,14 @@
       <c r="F76" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" customHeight="1" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>1918</v>
       </c>
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18516,14 +18544,14 @@
       <c r="F77" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" customHeight="1" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>1919</v>
       </c>
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18533,14 +18561,14 @@
       <c r="F78" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" customHeight="1" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18550,14 +18578,14 @@
       <c r="F79" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" customHeight="1" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>1921</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18567,14 +18595,14 @@
       <c r="F80" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" customHeight="1" spans="1:11">
       <c r="A81" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18584,14 +18612,14 @@
       <c r="F81" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" customHeight="1" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18601,14 +18629,14 @@
       <c r="F82" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" customHeight="1" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18618,14 +18646,14 @@
       <c r="F83" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" customHeight="1" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18635,14 +18663,14 @@
       <c r="F84" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" customHeight="1" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="B85" s="8"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18652,14 +18680,14 @@
       <c r="F85" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" customHeight="1" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>1927</v>
       </c>
-      <c r="B86" s="8"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="1" t="s">
         <v>1803</v>
       </c>
@@ -18669,8 +18697,8 @@
       <c r="F86" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" customHeight="1" spans="1:10">
       <c r="A87" s="1" t="s">
@@ -18855,11 +18883,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="7"/>
-    <col min="3" max="3" width="30" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="7" customWidth="1"/>
-    <col min="5" max="1024" width="8.78333333333333" style="7"/>
+    <col min="1" max="1" width="11.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="8"/>
+    <col min="3" max="3" width="30" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="8" customWidth="1"/>
+    <col min="5" max="1024" width="8.78333333333333" style="8"/>
     <col min="1025" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
@@ -18941,107 +18969,107 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:22">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1717</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>1788</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>1944</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>1945</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>1946</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1947</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>1948</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>1949</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>1950</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>1951</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:9">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:9">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:9">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -19077,78 +19105,75 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1717</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>1788</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>1952</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>1953</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:8">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -19176,7 +19201,7 @@
     <col min="1" max="1" width="10.3916666666667" style="1"/>
     <col min="2" max="2" width="29.775" style="1"/>
     <col min="3" max="1025" width="8.78333333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1026" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:2">
@@ -19207,7 +19232,7 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -19246,10 +19271,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="8.78333333333333" style="3"/>
-    <col min="7" max="7" width="19.125" style="3" customWidth="1"/>
-    <col min="8" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="1" max="6" width="8.78333333333333" style="4"/>
+    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
@@ -19707,17 +19732,17 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -19763,7 +19788,52 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="author@organization.edu"/>
+    <hyperlink ref="I2" r:id="rId2" display="https://www.organization.edu"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -19798,25 +19868,25 @@
         <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1981</v>
+        <v>1991</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -19837,7 +19907,7 @@
         <v>1953</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1982</v>
+        <v>1992</v>
       </c>
     </row>
   </sheetData>
@@ -19918,7 +19988,7 @@
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -19956,11 +20026,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="13.3916666666667" style="3"/>
-    <col min="3" max="3" width="10.925" style="3"/>
-    <col min="4" max="7" width="11.675" style="3"/>
-    <col min="8" max="8" width="11.3583333333333" style="3"/>
-    <col min="9" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1" max="2" width="13.3916666666667" style="4"/>
+    <col min="3" max="3" width="10.925" style="4"/>
+    <col min="4" max="7" width="11.675" style="4"/>
+    <col min="8" max="8" width="11.3583333333333" style="4"/>
+    <col min="9" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:8">
@@ -19999,7 +20069,7 @@
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1"/>
@@ -20082,14 +20152,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="6.10833333333333" style="3"/>
-    <col min="2" max="2" width="16.3916666666667" style="3"/>
-    <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
-    <col min="5" max="7" width="14.1416666666667" style="3"/>
-    <col min="8" max="16" width="11.7833333333333" style="3"/>
-    <col min="17" max="17" width="11.3583333333333" style="3"/>
-    <col min="18" max="1028" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="6.10833333333333" style="4"/>
+    <col min="2" max="2" width="16.3916666666667" style="4"/>
+    <col min="3" max="3" width="24.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
+    <col min="5" max="7" width="14.1416666666667" style="4"/>
+    <col min="8" max="16" width="11.7833333333333" style="4"/>
+    <col min="17" max="17" width="11.3583333333333" style="4"/>
+    <col min="18" max="1028" width="8.78333333333333" style="4"/>
     <col min="1029" max="1031" width="8.78333333333333"/>
   </cols>
   <sheetData>
@@ -20171,7 +20241,7 @@
       <c r="H2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
@@ -20183,7 +20253,7 @@
       <c r="L2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="1"/>
@@ -20261,8 +20331,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.025" style="3"/>
-    <col min="2" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="26.025" style="4"/>
+    <col min="2" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:12">
@@ -20321,7 +20391,7 @@
       <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="1"/>
@@ -23946,9 +24016,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.7083333333333" style="3"/>
-    <col min="2" max="10" width="16.3916666666667" style="3"/>
-    <col min="11" max="1026" width="9.10833333333333" style="3"/>
+    <col min="1" max="1" width="28.7083333333333" style="4"/>
+    <col min="2" max="10" width="16.3916666666667" style="4"/>
+    <col min="11" max="1026" width="9.10833333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
@@ -23984,7 +24054,7 @@
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -23993,10 +24063,10 @@
       <c r="C2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>428</v>
       </c>
       <c r="G2" s="1"/>
@@ -24006,16 +24076,16 @@
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>430</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I3" s="16" t="s">
@@ -24023,106 +24093,106 @@
       </c>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>432</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I4" s="16"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>433</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I5" s="16"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I6" s="16"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I7" s="16"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I8" s="16"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I9" s="16"/>
     </row>
     <row r="10" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>428</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -24131,241 +24201,241 @@
       <c r="I10" s="16"/>
     </row>
     <row r="11" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I13" s="16"/>
     </row>
     <row r="14" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>443</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I14" s="16"/>
     </row>
     <row r="15" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I15" s="16"/>
     </row>
     <row r="16" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I16" s="16"/>
     </row>
     <row r="17" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I17" s="16"/>
     </row>
     <row r="18" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>447</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I18" s="16"/>
     </row>
     <row r="19" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I19" s="16"/>
     </row>
     <row r="20" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>449</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I20" s="16"/>
     </row>
     <row r="21" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>450</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I21" s="16"/>
     </row>
     <row r="22" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I22" s="16"/>
     </row>
     <row r="23" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>452</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I23" s="16"/>
     </row>
     <row r="24" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>453</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I24" s="16"/>
     </row>
     <row r="25" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>454</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I25" s="16"/>
     </row>
     <row r="26" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>455</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>428</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -24374,2251 +24444,2251 @@
       <c r="I26" s="16"/>
     </row>
     <row r="27" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>457</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I27" s="16"/>
     </row>
     <row r="28" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I28" s="16"/>
     </row>
     <row r="29" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I29" s="16"/>
     </row>
     <row r="30" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>460</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I30" s="16"/>
     </row>
     <row r="31" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>461</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I31" s="16"/>
     </row>
     <row r="32" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I32" s="16"/>
     </row>
     <row r="33" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I33" s="16"/>
     </row>
     <row r="34" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I34" s="16"/>
     </row>
     <row r="35" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I35" s="16"/>
     </row>
     <row r="36" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I36" s="16"/>
     </row>
     <row r="37" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I37" s="16"/>
     </row>
     <row r="38" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I38" s="16"/>
     </row>
     <row r="39" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I39" s="16"/>
     </row>
     <row r="40" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>470</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I40" s="16"/>
     </row>
     <row r="41" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I41" s="16"/>
     </row>
     <row r="42" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>472</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I42" s="16"/>
     </row>
     <row r="43" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>473</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I43" s="16"/>
     </row>
     <row r="44" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I44" s="16"/>
     </row>
     <row r="45" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I45" s="16"/>
     </row>
     <row r="46" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I46" s="16"/>
     </row>
     <row r="47" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>477</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I47" s="16"/>
     </row>
     <row r="48" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>478</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I48" s="16"/>
     </row>
     <row r="49" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>479</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I49" s="16"/>
     </row>
     <row r="50" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I50" s="16"/>
     </row>
     <row r="51" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I51" s="16"/>
     </row>
     <row r="52" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>482</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I52" s="16"/>
     </row>
     <row r="53" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I53" s="16"/>
     </row>
     <row r="54" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I54" s="16"/>
     </row>
     <row r="55" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>485</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I55" s="16"/>
     </row>
     <row r="56" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I56" s="16"/>
     </row>
     <row r="57" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>487</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I57" s="16"/>
     </row>
     <row r="58" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>488</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I58" s="16"/>
     </row>
     <row r="59" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I59" s="16"/>
     </row>
     <row r="60" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>490</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I60" s="16"/>
     </row>
     <row r="61" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I61" s="16"/>
     </row>
     <row r="62" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I62" s="16"/>
     </row>
     <row r="63" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>493</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I63" s="16"/>
     </row>
     <row r="64" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>494</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I64" s="16"/>
     </row>
     <row r="65" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>495</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I65" s="16"/>
     </row>
     <row r="66" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>496</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I66" s="16"/>
     </row>
     <row r="67" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>497</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I67" s="16"/>
     </row>
     <row r="68" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>498</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I68" s="16"/>
     </row>
     <row r="69" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I69" s="16"/>
     </row>
     <row r="70" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>500</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I70" s="16"/>
     </row>
     <row r="71" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>501</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I71" s="16"/>
     </row>
     <row r="72" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>502</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I72" s="16"/>
     </row>
     <row r="73" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
         <v>503</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I73" s="16"/>
     </row>
     <row r="74" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>504</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I74" s="16"/>
     </row>
     <row r="75" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>505</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I75" s="16"/>
     </row>
     <row r="76" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4" t="s">
         <v>506</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I76" s="16"/>
     </row>
     <row r="77" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>507</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I77" s="16"/>
     </row>
     <row r="78" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
         <v>508</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I78" s="16"/>
     </row>
     <row r="79" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>509</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I79" s="16"/>
     </row>
     <row r="80" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>510</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I80" s="16"/>
     </row>
     <row r="81" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>511</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I81" s="16"/>
     </row>
     <row r="82" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="4" t="s">
         <v>512</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I82" s="16"/>
     </row>
     <row r="83" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I83" s="16"/>
     </row>
     <row r="84" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>514</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I84" s="16"/>
     </row>
     <row r="85" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>515</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I85" s="16"/>
     </row>
     <row r="86" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="4" t="s">
         <v>516</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I86" s="16"/>
     </row>
     <row r="87" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>517</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I87" s="16"/>
     </row>
     <row r="88" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="4" t="s">
         <v>518</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I88" s="16"/>
     </row>
     <row r="89" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I89" s="16"/>
     </row>
     <row r="90" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>520</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I90" s="16"/>
     </row>
     <row r="91" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>521</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I91" s="16"/>
     </row>
     <row r="92" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>522</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I92" s="16"/>
     </row>
     <row r="93" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>523</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I93" s="16"/>
     </row>
     <row r="94" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>524</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I94" s="16"/>
     </row>
     <row r="95" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>525</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I95" s="16"/>
     </row>
     <row r="96" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>526</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I96" s="16"/>
     </row>
     <row r="97" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>527</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I97" s="16"/>
     </row>
     <row r="98" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>528</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I98" s="16"/>
     </row>
     <row r="99" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>529</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I99" s="16"/>
     </row>
     <row r="100" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>530</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I100" s="16"/>
     </row>
     <row r="101" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="4" t="s">
         <v>531</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I101" s="16"/>
     </row>
     <row r="102" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I102" s="16"/>
     </row>
     <row r="103" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I103" s="16"/>
     </row>
     <row r="104" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>534</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I104" s="16"/>
     </row>
     <row r="105" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>535</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I105" s="16"/>
     </row>
     <row r="106" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>536</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I106" s="16"/>
     </row>
     <row r="107" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>537</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I107" s="16"/>
     </row>
     <row r="108" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>538</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I108" s="16"/>
     </row>
     <row r="109" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>539</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I109" s="16"/>
     </row>
     <row r="110" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>540</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I110" s="16"/>
     </row>
     <row r="111" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="4" t="s">
         <v>541</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I111" s="16"/>
     </row>
     <row r="112" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>542</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I112" s="16"/>
     </row>
     <row r="113" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="4" t="s">
         <v>543</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I113" s="16"/>
     </row>
     <row r="114" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="4" t="s">
         <v>544</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I114" s="16"/>
     </row>
     <row r="115" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>545</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I115" s="16"/>
     </row>
     <row r="116" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="4" t="s">
         <v>546</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I116" s="16"/>
     </row>
     <row r="117" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>547</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I117" s="16"/>
     </row>
     <row r="118" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="4" t="s">
         <v>548</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I118" s="16"/>
     </row>
     <row r="119" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="4" t="s">
         <v>549</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I119" s="16"/>
     </row>
     <row r="120" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="4" t="s">
         <v>550</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I120" s="16"/>
     </row>
     <row r="121" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="4" t="s">
         <v>551</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I121" s="16"/>
     </row>
     <row r="122" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>552</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I122" s="16"/>
     </row>
     <row r="123" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="4" t="s">
         <v>553</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I123" s="16"/>
     </row>
     <row r="124" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="4" t="s">
         <v>554</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I124" s="16"/>
     </row>
     <row r="125" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>555</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I125" s="16"/>
     </row>
     <row r="126" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="4" t="s">
         <v>556</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I126" s="16"/>
     </row>
     <row r="127" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>557</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I127" s="16"/>
     </row>
     <row r="128" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="4" t="s">
         <v>558</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I128" s="16"/>
     </row>
     <row r="129" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="4" t="s">
         <v>559</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I129" s="16"/>
     </row>
     <row r="130" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="4" t="s">
         <v>560</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I130" s="16"/>
     </row>
     <row r="131" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="4" t="s">
         <v>561</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I131" s="16"/>
     </row>
     <row r="132" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="4" t="s">
         <v>562</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I132" s="16"/>
     </row>
     <row r="133" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>563</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I133" s="16"/>
     </row>
     <row r="134" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I134" s="16"/>
     </row>
     <row r="135" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>565</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I135" s="16"/>
     </row>
     <row r="136" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="4" t="s">
         <v>566</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I136" s="16"/>
     </row>
     <row r="137" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I137" s="16"/>
     </row>
     <row r="138" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="4" t="s">
         <v>568</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I138" s="16"/>
     </row>
     <row r="139" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>569</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I139" s="16"/>
     </row>
     <row r="140" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
         <v>570</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I140" s="16"/>
     </row>
     <row r="141" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="4" t="s">
         <v>571</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I141" s="16"/>
     </row>
     <row r="142" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>572</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I142" s="16"/>
     </row>
     <row r="143" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>573</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I143" s="16"/>
     </row>
     <row r="144" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I144" s="16"/>
     </row>
     <row r="145" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I145" s="16"/>
     </row>
     <row r="146" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>576</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I146" s="16"/>
     </row>
     <row r="147" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>577</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I147" s="16"/>
     </row>
     <row r="148" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>578</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I148" s="16"/>
     </row>
     <row r="149" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I149" s="16"/>
     </row>
     <row r="150" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>580</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I150" s="16"/>
     </row>
     <row r="151" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>581</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I151" s="16"/>
     </row>
     <row r="152" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I152" s="16"/>
     </row>
     <row r="153" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I153" s="16"/>
     </row>
     <row r="154" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
         <v>584</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I154" s="16"/>
     </row>
     <row r="155" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>585</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I155" s="16"/>
     </row>
     <row r="156" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
         <v>586</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I156" s="16"/>
     </row>
     <row r="157" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>587</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I157" s="16"/>
     </row>
     <row r="158" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I158" s="16"/>
     </row>
     <row r="159" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>589</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I159" s="16"/>
     </row>
     <row r="160" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I160" s="16"/>
     </row>
     <row r="161" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I161" s="16"/>
     </row>
     <row r="162" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
         <v>592</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I162" s="16"/>
     </row>
     <row r="163" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="4" t="s">
         <v>593</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I163" s="16"/>
     </row>
     <row r="164" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I164" s="16"/>
     </row>
     <row r="165" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>595</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I165" s="16"/>
     </row>
     <row r="166" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>596</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I166" s="16"/>
     </row>
     <row r="167" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>597</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I167" s="16"/>
     </row>
     <row r="168" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I168" s="16"/>
     </row>
     <row r="169" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
         <v>599</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I169" s="16"/>
     </row>
     <row r="170" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4" t="s">
         <v>600</v>
       </c>
       <c r="C170" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I170" s="16"/>
     </row>
     <row r="171" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="4" t="s">
         <v>601</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I171" s="16"/>
     </row>
     <row r="172" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="4" t="s">
         <v>602</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I172" s="16"/>
     </row>
     <row r="173" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="4" t="s">
         <v>603</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I173" s="16"/>
     </row>
     <row r="174" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="4" t="s">
         <v>604</v>
       </c>
       <c r="C174" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I174" s="16"/>
     </row>
     <row r="175" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>605</v>
       </c>
       <c r="C175" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I175" s="16"/>
     </row>
     <row r="176" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="4" t="s">
         <v>606</v>
       </c>
       <c r="C176" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="4" t="s">
         <v>428</v>
       </c>
       <c r="I176" s="16"/>
@@ -26648,12 +26718,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.10833333333333" style="3"/>
-    <col min="3" max="3" width="31.1666666666667" style="3"/>
-    <col min="4" max="4" width="8.78333333333333" style="3"/>
-    <col min="5" max="6" width="12.625" style="3"/>
-    <col min="7" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1" max="1" width="36.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.10833333333333" style="4"/>
+    <col min="3" max="3" width="31.1666666666667" style="4"/>
+    <col min="4" max="4" width="8.78333333333333" style="4"/>
+    <col min="5" max="6" width="12.625" style="4"/>
+    <col min="7" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -26821,8 +26891,8 @@
         <v>612</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="1" t="s">
         <v>82</v>
       </c>
@@ -30011,1057 +30081,1007 @@
       <c r="L126" s="1"/>
     </row>
     <row r="127" customHeight="1" spans="1:7">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>426</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:7">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:7">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>436</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3">
-        <v>0</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:7">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>443</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E130" s="3">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3">
-        <v>0</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:7">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>446</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:7">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>449</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:7">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>452</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E133" s="3">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3">
-        <v>0</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>0</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:7">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E134" s="3">
-        <v>0</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>0</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:7">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>461</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E135" s="3">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3">
-        <v>0</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>0</v>
+      </c>
+      <c r="G135" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:7">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>463</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E136" s="3">
-        <v>0</v>
-      </c>
-      <c r="F136" s="3">
-        <v>0</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>0</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:7">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>465</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:7">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>466</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E138" s="3">
-        <v>0</v>
-      </c>
-      <c r="F138" s="3">
-        <v>0</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>0</v>
+      </c>
+      <c r="G138" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:7">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>469</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E139" s="3">
-        <v>0</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>0</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:7">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>472</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E140" s="3">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:7">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>473</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0</v>
+      </c>
+      <c r="G141" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:7">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>0</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:7">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3">
-        <v>0</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="E143" s="4">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0</v>
+      </c>
+      <c r="G143" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:7">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>483</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3">
-        <v>0</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>0</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:7">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>486</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E145" s="3">
-        <v>0</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="E145" s="4">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:7">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>489</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:7">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>492</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>0</v>
+      </c>
+      <c r="G147" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:7">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>500</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
-        <v>0</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>0</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:7">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>505</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E149" s="3">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3">
-        <v>0</v>
-      </c>
-      <c r="G149" s="3" t="s">
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>0</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:7">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>507</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
-      <c r="F150" s="3">
-        <v>0</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>0</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:7">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>508</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
-      <c r="F151" s="3">
-        <v>0</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="E151" s="4">
+        <v>0</v>
+      </c>
+      <c r="F151" s="4">
+        <v>0</v>
+      </c>
+      <c r="G151" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:7">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>514</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
-        <v>0</v>
-      </c>
-      <c r="G152" s="3" t="s">
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+      <c r="F152" s="4">
+        <v>0</v>
+      </c>
+      <c r="G152" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:7">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>517</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E153" s="3">
-        <v>0</v>
-      </c>
-      <c r="F153" s="3">
-        <v>0</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="E153" s="4">
+        <v>0</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:7">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E154" s="3">
-        <v>0</v>
-      </c>
-      <c r="F154" s="3">
-        <v>0</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+      <c r="F154" s="4">
+        <v>0</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:7">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>522</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E155" s="3">
-        <v>0</v>
-      </c>
-      <c r="F155" s="3">
-        <v>0</v>
-      </c>
-      <c r="G155" s="3" t="s">
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
+        <v>0</v>
+      </c>
+      <c r="G155" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:7">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>524</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E156" s="3">
-        <v>0</v>
-      </c>
-      <c r="F156" s="3">
-        <v>0</v>
-      </c>
-      <c r="G156" s="3" t="s">
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4">
+        <v>0</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:7">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E157" s="3">
-        <v>0</v>
-      </c>
-      <c r="F157" s="3">
-        <v>0</v>
-      </c>
-      <c r="G157" s="3" t="s">
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4">
+        <v>0</v>
+      </c>
+      <c r="G157" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:7">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E158" s="3">
-        <v>0</v>
-      </c>
-      <c r="F158" s="3">
-        <v>0</v>
-      </c>
-      <c r="G158" s="3" t="s">
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4">
+        <v>0</v>
+      </c>
+      <c r="G158" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:7">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>541</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="3">
-        <v>0</v>
-      </c>
-      <c r="F159" s="3">
-        <v>0</v>
-      </c>
-      <c r="G159" s="3" t="s">
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>0</v>
+      </c>
+      <c r="G159" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:7">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>551</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E160" s="3">
-        <v>0</v>
-      </c>
-      <c r="F160" s="3">
-        <v>0</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>0</v>
+      </c>
+      <c r="G160" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:7">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>553</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E161" s="3">
-        <v>0</v>
-      </c>
-      <c r="F161" s="3">
-        <v>0</v>
-      </c>
-      <c r="G161" s="3" t="s">
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>0</v>
+      </c>
+      <c r="G161" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:7">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>560</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E162" s="3">
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-      <c r="G162" s="3" t="s">
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0</v>
+      </c>
+      <c r="G162" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:7">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>563</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="F163" s="3">
-        <v>0</v>
-      </c>
-      <c r="G163" s="3" t="s">
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0</v>
+      </c>
+      <c r="G163" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:7">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>566</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E164" s="3">
-        <v>0</v>
-      </c>
-      <c r="F164" s="3">
-        <v>0</v>
-      </c>
-      <c r="G164" s="3" t="s">
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>0</v>
+      </c>
+      <c r="G164" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:7">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="4" t="s">
         <v>573</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E165" s="3">
-        <v>0</v>
-      </c>
-      <c r="F165" s="3">
-        <v>0</v>
-      </c>
-      <c r="G165" s="3" t="s">
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>0</v>
+      </c>
+      <c r="G165" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:7">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>575</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E166" s="3">
-        <v>0</v>
-      </c>
-      <c r="F166" s="3">
-        <v>0</v>
-      </c>
-      <c r="G166" s="3" t="s">
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>0</v>
+      </c>
+      <c r="G166" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:7">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>577</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E167" s="3">
-        <v>0</v>
-      </c>
-      <c r="F167" s="3">
-        <v>0</v>
-      </c>
-      <c r="G167" s="3" t="s">
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+      <c r="F167" s="4">
+        <v>0</v>
+      </c>
+      <c r="G167" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:7">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="4" t="s">
         <v>578</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E168" s="3">
-        <v>0</v>
-      </c>
-      <c r="F168" s="3">
-        <v>0</v>
-      </c>
-      <c r="G168" s="3" t="s">
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:7">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="4" t="s">
         <v>580</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E169" s="3">
-        <v>0</v>
-      </c>
-      <c r="F169" s="3">
-        <v>0</v>
-      </c>
-      <c r="G169" s="3" t="s">
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+      <c r="F169" s="4">
+        <v>0</v>
+      </c>
+      <c r="G169" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:7">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>587</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E170" s="3">
-        <v>0</v>
-      </c>
-      <c r="F170" s="3">
-        <v>0</v>
-      </c>
-      <c r="G170" s="3" t="s">
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+      <c r="F170" s="4">
+        <v>0</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:7">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>590</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E171" s="3">
-        <v>0</v>
-      </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-      <c r="G171" s="3" t="s">
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4">
+        <v>0</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:7">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>594</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E172" s="3">
-        <v>0</v>
-      </c>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
-      <c r="G172" s="3" t="s">
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+      <c r="F172" s="4">
+        <v>0</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:7">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>598</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E173" s="3">
-        <v>0</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-      <c r="G173" s="3" t="s">
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:7">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>600</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E174" s="3">
-        <v>0</v>
-      </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-      <c r="G174" s="3" t="s">
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
+      <c r="F174" s="4">
+        <v>0</v>
+      </c>
+      <c r="G174" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:7">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>604</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E175" s="3">
-        <v>0</v>
-      </c>
-      <c r="F175" s="3">
-        <v>0</v>
-      </c>
-      <c r="G175" s="3" t="s">
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" s="4">
+        <v>0</v>
+      </c>
+      <c r="G175" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:7">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>606</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E176" s="3">
-        <v>0</v>
-      </c>
-      <c r="F176" s="3">
-        <v>0</v>
-      </c>
-      <c r="G176" s="3" t="s">
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>0</v>
+      </c>
+      <c r="G176" s="4" t="s">
         <v>612</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L126">
+  <autoFilter ref="C1:L176">
     <extLst/>
   </autoFilter>
   <sortState ref="A128:G302">
@@ -31088,25 +31108,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="3"/>
-    <col min="3" max="3" width="38.5666666666667" style="3"/>
-    <col min="4" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1" max="2" width="8.78333333333333" style="4"/>
+    <col min="3" max="3" width="38.5666666666667" style="4"/>
+    <col min="4" max="1026" width="8.78333333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -31115,7 +31135,7 @@
       <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -31126,14 +31146,14 @@
       <c r="A2" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
         <v>789</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1"/>

--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="8" activeTab="20"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -2234,10 +2234,10 @@
     <t>dist-init-conc-AD[e]</t>
   </si>
   <si>
+    <t>dist-init-conc-Adk_Protein[c]</t>
+  </si>
+  <si>
     <t>molar</t>
-  </si>
-  <si>
-    <t>dist-init-conc-Adk_Protein[c]</t>
   </si>
   <si>
     <t>dist-init-conc-Adk_Rna[c]</t>
@@ -18762,7 +18762,7 @@
         <v>1.81285794880199e-7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>1929</v>
@@ -18779,7 +18779,7 @@
         <v>0.0005</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>1931</v>
@@ -18796,7 +18796,7 @@
         <v>0.001</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>1931</v>
@@ -19734,7 +19734,7 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -26708,12 +26708,12 @@
   <sheetPr/>
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -26776,13 +26776,13 @@
         <v>66</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000148</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0121655250605964</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>612</v>
+        <v>428</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -26794,7 +26794,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -26810,7 +26810,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -26836,7 +26836,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -26862,7 +26862,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -26888,7 +26888,7 @@
         <v>0.0852966587856758</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="13"/>
@@ -26916,7 +26916,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>439</v>
@@ -26944,7 +26944,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -26970,7 +26970,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -26996,7 +26996,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -27022,7 +27022,7 @@
         <v>0.0552760345900463</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -27050,7 +27050,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -27076,7 +27076,7 @@
         <v>0.014142135623731</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -27104,7 +27104,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -27130,7 +27130,7 @@
         <v>0.0884286152780874</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -27158,7 +27158,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -27184,7 +27184,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -27210,7 +27210,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -27236,7 +27236,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -27262,7 +27262,7 @@
         <v>0.041232293243529</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -27290,7 +27290,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -27316,7 +27316,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -27342,7 +27342,7 @@
         <v>0.0564036346346581</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -27370,7 +27370,7 @@
         <v>0.0158113883008419</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -27398,7 +27398,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -27424,7 +27424,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -27450,7 +27450,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -27476,7 +27476,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -27502,7 +27502,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -27528,7 +27528,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -27554,7 +27554,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -27580,7 +27580,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -27606,7 +27606,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -27632,7 +27632,7 @@
         <v>0.234671205696025</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -27660,7 +27660,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -27686,7 +27686,7 @@
         <v>0.026741858574153</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -27714,7 +27714,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -27740,7 +27740,7 @@
         <v>0.116093066115079</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -27768,7 +27768,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -27794,7 +27794,7 @@
         <v>0.0884866656621211</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -27822,7 +27822,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -27848,7 +27848,7 @@
         <v>0.0115039123779695</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -27876,7 +27876,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -27902,7 +27902,7 @@
         <v>7.41619848709566</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -27928,7 +27928,7 @@
         <v>7.41619848709566</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -27956,7 +27956,7 @@
         <v>0.000105924501414923</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -27982,7 +27982,7 @@
         <v>0.000133352915228727</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -28010,7 +28010,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -28036,7 +28036,7 @@
         <v>0.048852226151937</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -28064,7 +28064,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -28090,7 +28090,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -28116,7 +28116,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -28142,7 +28142,7 @@
         <v>0.0637643317223665</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -28170,7 +28170,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -28196,7 +28196,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -28222,7 +28222,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -28248,7 +28248,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -28274,7 +28274,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -28300,7 +28300,7 @@
         <v>0.0884266362585392</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -28328,7 +28328,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -28354,7 +28354,7 @@
         <v>0.07939244296531</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -28382,7 +28382,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -28408,7 +28408,7 @@
         <v>0.0423670862816881</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -28436,7 +28436,7 @@
         <v>0.0022986278515671</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -28464,7 +28464,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -28490,7 +28490,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -28516,7 +28516,7 @@
         <v>0.0165230421060051</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -28544,7 +28544,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -28570,7 +28570,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -28596,7 +28596,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -28622,7 +28622,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -28648,7 +28648,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -28674,7 +28674,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -28700,7 +28700,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -28726,7 +28726,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -28752,7 +28752,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -28778,7 +28778,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -28804,7 +28804,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -28830,7 +28830,7 @@
         <v>0.0583425230856534</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -28858,7 +28858,7 @@
         <v>0.0707106781186547</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -28884,7 +28884,7 @@
         <v>0.14142135623731</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -28912,7 +28912,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -28938,7 +28938,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -28964,7 +28964,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -28990,7 +28990,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -29016,7 +29016,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -29042,7 +29042,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -29068,7 +29068,7 @@
         <v>0.0908145362813685</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -29096,7 +29096,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -29122,7 +29122,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -29148,7 +29148,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -29174,7 +29174,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -29200,7 +29200,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -29226,7 +29226,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -29252,7 +29252,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -29278,7 +29278,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -29304,7 +29304,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -29330,7 +29330,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -29356,7 +29356,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -29382,7 +29382,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -29408,7 +29408,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -29434,7 +29434,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -29460,7 +29460,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -29486,7 +29486,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -29512,7 +29512,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -29538,7 +29538,7 @@
         <v>0.0733218930470293</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -29566,7 +29566,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -29592,7 +29592,7 @@
         <v>0.0685924194062289</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -29620,7 +29620,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -29646,7 +29646,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -29672,7 +29672,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -29698,7 +29698,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -29724,7 +29724,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -29750,7 +29750,7 @@
         <v>0.0176965533367376</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -29778,7 +29778,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -29804,7 +29804,7 @@
         <v>0.0335489195057009</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -29832,7 +29832,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -29858,7 +29858,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -29884,7 +29884,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -29910,7 +29910,7 @@
         <v>0.00190413127110606</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -29936,7 +29936,7 @@
         <v>0.000425776696027623</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -29962,7 +29962,7 @@
         <v>0.0133578815685722</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -29990,7 +29990,7 @@
         <v>0.0316227766016838</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -30016,7 +30016,7 @@
         <v>0.00102050477705888</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -30044,7 +30044,7 @@
         <v>0.0223606797749979</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -30070,7 +30070,7 @@
         <v>0.0766225162729599</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -30097,7 +30097,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:7">
@@ -30117,7 +30117,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:7">
@@ -30137,7 +30137,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:7">
@@ -30157,7 +30157,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:7">
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:7">
@@ -30197,7 +30197,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:7">
@@ -30217,7 +30217,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:7">
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:7">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:7">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:7">
@@ -30297,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:7">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:7">
@@ -30337,7 +30337,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:7">
@@ -30357,7 +30357,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:7">
@@ -30377,7 +30377,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:7">
@@ -30397,7 +30397,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:7">
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:7">
@@ -30437,7 +30437,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:7">
@@ -30457,7 +30457,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:7">
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:7">
@@ -30497,7 +30497,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:7">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:7">
@@ -30537,7 +30537,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:7">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:7">
@@ -30577,7 +30577,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:7">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:7">
@@ -30617,7 +30617,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:7">
@@ -30637,7 +30637,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:7">
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:7">
@@ -30677,7 +30677,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:7">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:7">
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:7">
@@ -30737,7 +30737,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:7">
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:7">
@@ -30777,7 +30777,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:7">
@@ -30797,7 +30797,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:7">
@@ -30817,7 +30817,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:7">
@@ -30837,7 +30837,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:7">
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:7">
@@ -30877,7 +30877,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:7">
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:7">
@@ -30917,7 +30917,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:7">
@@ -30937,7 +30937,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:7">
@@ -30957,7 +30957,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:7">
@@ -30977,7 +30977,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:7">
@@ -30997,7 +30997,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:7">
@@ -31017,7 +31017,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:7">
@@ -31037,7 +31037,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:7">
@@ -31057,7 +31057,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:7">
@@ -31077,7 +31077,7 @@
         <v>0</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4685" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="2008">
   <si>
     <t>Table</t>
   </si>
@@ -518,7 +518,7 @@
     <t>second</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>ns_1: id_1, ns_2: id_2</t>
@@ -6373,9 +6373,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
     <t>Author_001</t>
   </si>
   <si>
@@ -6398,9 +6395,6 @@
   </si>
   <si>
     <t>Author_001 address</t>
-  </si>
-  <si>
-    <t>0123-4567-8901-2345</t>
   </si>
   <si>
     <t>Author_001 comments</t>
@@ -6435,13 +6429,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6501,12 +6495,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6516,8 +6507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6530,24 +6522,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6566,14 +6544,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -6589,16 +6582,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6612,32 +6612,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6662,7 +6649,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6674,133 +6817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6812,37 +6829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6853,24 +6840,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6885,6 +6854,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6904,17 +6897,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6936,155 +6934,144 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7568,7 +7555,7 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -50896,14 +50883,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -50911,7 +50898,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -50943,21 +50930,18 @@
         <v>1990</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1992</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1993</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1972</v>
@@ -50966,31 +50950,28 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>1996</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>1997</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>1999</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -51032,25 +51013,25 @@
         <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2005</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2006</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2008</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -51071,7 +51052,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Parameters" sheetId="15" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId18"/>
     <sheet name="Evidence" sheetId="17" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="20" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="20" r:id="rId20"/>
     <sheet name="References" sheetId="18" r:id="rId21"/>
     <sheet name="Authors" sheetId="21" r:id="rId22"/>
     <sheet name="Changes" sheetId="22" r:id="rId23"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="1950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4638" uniqueCount="1950">
   <si>
     <t>Table</t>
   </si>
@@ -461,7 +461,7 @@
     <t>Evidence</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -6112,10 +6112,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
+    <t>Data generation process</t>
+  </si>
+  <si>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -6136,7 +6136,10 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Title</t>
@@ -6245,9 +6248,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -6256,10 +6256,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6327,17 +6327,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6350,23 +6349,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6381,31 +6387,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6416,19 +6408,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6439,8 +6438,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6448,7 +6448,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6475,25 +6475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6505,13 +6499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6523,127 +6523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6656,6 +6536,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6678,17 +6678,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6708,17 +6704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6730,6 +6715,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6752,16 +6752,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6769,132 +6769,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7384,10 +7384,10 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -7629,7 +7629,7 @@
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
     <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
+    <hyperlink ref="A20" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
     <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
     <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
     <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
@@ -49855,7 +49855,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -50142,14 +50142,14 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -50168,7 +50168,7 @@
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -50207,6 +50207,9 @@
       </c>
       <c r="M2" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:9">
@@ -50284,46 +50287,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -50754,28 +50757,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -50786,40 +50789,40 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
   </sheetData>
@@ -50861,25 +50864,25 @@
         <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -50900,7 +50903,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1949</v>
+        <v>1913</v>
       </c>
     </row>
   </sheetData>
@@ -51423,7 +51426,7 @@
   <sheetPr/>
   <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="6" activeTab="19"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Table of contents" sheetId="23" r:id="rId1"/>
+    <sheet name="!_Table of contents" sheetId="23" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
     <sheet name="Taxon" sheetId="2" r:id="rId3"/>
     <sheet name="Environment" sheetId="19" r:id="rId4"/>
@@ -37,7 +37,7 @@
     <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!_Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$H$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$U$4</definedName>
@@ -6265,8 +6265,8 @@
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6333,6 +6333,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -6347,8 +6378,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6356,30 +6394,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6394,9 +6425,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6408,52 +6454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -6482,7 +6482,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6494,67 +6566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6572,43 +6590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6626,7 +6614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6638,13 +6632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6656,13 +6650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6681,47 +6681,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6750,11 +6709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6773,135 +6738,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7391,7 +7391,7 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
@@ -50185,7 +50185,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <externalReferences>
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
@@ -379,16 +379,16 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!Submodels'!$A$1:$H$5</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$U$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$N$145</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!Initial species concentrations'!$C$1:$L$176</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$N$208</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!Rate laws'!$C$1:$L$147</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$K$96</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$R$22</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$5</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$145</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$C$1:$L$176</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$N$208</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$C$1:$L$147</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$K$96</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$R$22</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -1012,14 +1012,14 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,7 +1029,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="4" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1471,42 +1471,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C3" s="26" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="27" t="n"/>
-      <c r="C3" s="27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="27" t="n"/>
@@ -1517,7 +1513,7 @@
     <row r="5">
       <c r="A5" s="27" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="27" t="n"/>
@@ -1528,220 +1524,231 @@
     <row r="6">
       <c r="A6" s="27" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="27" t="n"/>
       <c r="C6" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="27" t="n"/>
       <c r="C7" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="27" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="27" t="n"/>
       <c r="C8" s="27" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="27" t="n"/>
       <c r="C9" s="27" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="27" t="n"/>
       <c r="C10" s="27" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="27" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="27" t="n"/>
       <c r="C14" s="27" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="27" t="n"/>
       <c r="C15" s="27" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="27" t="n"/>
       <c r="C16" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="27" t="n"/>
       <c r="C17" s="27" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="27" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="27" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="27" t="n"/>
       <c r="C19" s="27" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="27" t="n"/>
       <c r="C21" s="27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="27" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="27" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="27" t="n"/>
       <c r="C23" s="27" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="27" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1801,7 +1808,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1998,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD209"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="E3" xSplit="1" ySplit="2"/>
@@ -2193,7 +2200,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -10280,7 +10287,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -14333,7 +14340,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14491,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -14652,7 +14659,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -15812,7 +15819,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -18217,7 +18224,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -18326,7 +18333,7 @@
     <row customHeight="1" ht="15" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18555,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -18732,7 +18739,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -18818,7 +18825,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18985,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19491,7 +19498,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19650,7 +19657,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19771,7 +19778,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19881,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -19988,7 +19995,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -20168,7 +20175,7 @@
     <row customHeight="1" ht="15" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -20494,7 +20501,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -25320,7 +25327,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -29470,7 +29477,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,359 +36,359 @@
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="1" name="_FilterDatabase_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Model!$A$1:$B$7</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Taxon!$A$1:$B$6</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="4" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Submodels!$A$1:$H$5</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$U$4</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$N$145</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="8" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'[1]#REF'!$C$1:$K$126</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$N$177</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$A$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="12" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Rate laws'!$C$1:$L$147</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0">Parameters!$A$18:$F$93</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$13</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_1">Parameters!$A$1:$K$5</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$R$20</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Model'!$A$1:$B$12</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'!!Submodels'!$A$1:$H$5</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$U$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$N$145</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'!!Init species concentrations'!$C$1:$L$176</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$N$208</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">'!!Rate laws'!$C$1:$L$147</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$K$96</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$R$22</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="2">Taxon!$A$1:$B$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Submodels!$A$1:$H$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$U$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$N$145</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="8">'[1]#REF'!$C$1:$K$126</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$N$177</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$A$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="12">'Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$18:$F$93</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$13</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_1" localSheetId="16">Parameters!$A$1:$K$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$R$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Model'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$2:$U$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$2:$N$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!Init species concentrations'!$C$1:$L$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$2:$N$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!Rate laws'!$C$1:$L$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$K$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$1:$R$22</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -397,8 +397,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -907,276 +907,276 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="11" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165"/>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="15" numFmtId="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="29" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="48">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="48">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1187,7 +1187,7 @@
       <sheetName val="#REF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData refreshError="1" sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1457,28 +1457,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="C21" pane="bottomLeft" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="25" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="25" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="25" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="25" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' objTablesVersion='0.0.8' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1755,30 +1755,30 @@
   </sheetData>
   <autoFilter ref="A1:C24"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A2" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A3" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A4" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A5" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A6" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A7" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A8" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A9" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A10" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A11" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A12" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A13" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A14" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A15" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A16" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A17" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A18" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Evidence'!A1" ref="A19" tooltip="Click to view evidence"/>
-    <hyperlink display="Conclusions" location="'Interpretations'!A1" ref="A21" tooltip="Click to view interpretations"/>
-    <hyperlink display="References" location="'References'!A1" ref="A22" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A23" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A24" tooltip="Click to view changes"/>
+    <hyperlink ref="A2" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A3" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A4" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A5" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A6" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A7" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A8" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A9" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A10" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A11" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A12" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A13" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A14" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A15" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A16" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A17" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A18" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" tooltip="Click to view evidence" display="Observations"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" tooltip="Click to view interpretations" display="Conclusions"/>
+    <hyperlink ref="A22" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A23" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1791,28 +1791,28 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="4" width="38.5666666666667"/>
-    <col customWidth="1" max="1026" min="4" style="4" width="8.78333333333333"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1" max="2"/>
+    <col width="38.5666666666667" customWidth="1" style="4" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="4" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="20" t="inlineStr">
         <is>
           <t>AXP_c</t>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="I3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="20" t="inlineStr">
         <is>
           <t>NDP_c</t>
@@ -1911,7 +1911,7 @@
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="20" t="inlineStr">
         <is>
           <t>NMP_c</t>
@@ -1956,8 +1956,8 @@
       <c r="H6" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1978,31 +1978,31 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.5"/>
-    <col customWidth="1" max="2" min="2" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="4" width="25"/>
-    <col customWidth="1" max="4" min="4" style="4" width="12.25"/>
-    <col customWidth="1" max="1024" min="5" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" width="8.78333333333333"/>
+    <col width="8.5" customWidth="1" style="4" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="2" max="2"/>
+    <col width="25" customWidth="1" style="4" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="4" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="5" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" min="1025" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>func_1</t>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="I3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>func_2</t>
@@ -2156,8 +2156,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2178,33 +2178,33 @@
   <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="E3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="K2" pane="bottomRight" sqref="K2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="34.9166666666667"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="4" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="4" width="66.2"/>
-    <col customWidth="1" max="6" min="5" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="7" min="7" style="4" width="9.375"/>
-    <col customWidth="1" max="1027" min="8" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1028" style="5" width="9"/>
+    <col width="34.9166666666667" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="4" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="4" min="3" max="3"/>
+    <col width="66.2" customWidth="1" style="4" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="5" max="6"/>
+    <col width="9.375" customWidth="1" style="4" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="8" max="1027"/>
+    <col width="9" customWidth="1" style="5" min="1028" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.5" r="1">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="18" t="inlineStr">
         <is>
           <t>!Flux bounds</t>
@@ -4886,7 +4886,7 @@
       <c r="M71" s="1" t="n"/>
       <c r="N71" s="1" t="n"/>
     </row>
-    <row hidden="1" r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>PykUDP</t>
@@ -4924,7 +4924,7 @@
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
     </row>
-    <row hidden="1" r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Adk</t>
@@ -4962,7 +4962,7 @@
       <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
     </row>
-    <row hidden="1" r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Apt</t>
@@ -5000,7 +5000,7 @@
       <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
     </row>
-    <row hidden="1" r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Cmk</t>
@@ -5038,7 +5038,7 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
     </row>
-    <row hidden="1" r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Eno</t>
@@ -5076,7 +5076,7 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
     </row>
-    <row hidden="1" r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Fba</t>
@@ -5114,7 +5114,7 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
     </row>
-    <row hidden="1" r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gap</t>
@@ -5152,7 +5152,7 @@
       <c r="M78" s="1" t="n"/>
       <c r="N78" s="1" t="n"/>
     </row>
-    <row hidden="1" r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gk</t>
@@ -5190,7 +5190,7 @@
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
     </row>
-    <row hidden="1" r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Hpt</t>
@@ -5228,7 +5228,7 @@
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
     </row>
-    <row hidden="1" r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_LacA</t>
@@ -5266,7 +5266,7 @@
       <c r="M81" s="1" t="n"/>
       <c r="N81" s="1" t="n"/>
     </row>
-    <row hidden="1" r="82">
+    <row r="82" hidden="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ldh</t>
@@ -5304,7 +5304,7 @@
       <c r="M82" s="1" t="n"/>
       <c r="N82" s="1" t="n"/>
     </row>
-    <row hidden="1" r="83">
+    <row r="83" hidden="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Nox</t>
@@ -5342,7 +5342,7 @@
       <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
     </row>
-    <row hidden="1" r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PeptAbcTransporter</t>
@@ -5380,7 +5380,7 @@
       <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
     </row>
-    <row hidden="1" r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pfk</t>
@@ -5418,7 +5418,7 @@
       <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
     </row>
-    <row hidden="1" r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PgiB</t>
@@ -5456,7 +5456,7 @@
       <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
     </row>
-    <row hidden="1" r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgk</t>
@@ -5494,7 +5494,7 @@
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
     </row>
-    <row hidden="1" r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgm</t>
@@ -5532,7 +5532,7 @@
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
     </row>
-    <row hidden="1" r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PiAbcTransporter</t>
@@ -5570,7 +5570,7 @@
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
     </row>
-    <row hidden="1" r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ppa</t>
@@ -5608,7 +5608,7 @@
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
     </row>
-    <row hidden="1" r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Prs</t>
@@ -5646,7 +5646,7 @@
       <c r="M91" s="1" t="n"/>
       <c r="N91" s="1" t="n"/>
     </row>
-    <row hidden="1" r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pts</t>
@@ -5684,7 +5684,7 @@
       <c r="M92" s="1" t="n"/>
       <c r="N92" s="1" t="n"/>
     </row>
-    <row hidden="1" r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pyk</t>
@@ -5722,7 +5722,7 @@
       <c r="M93" s="1" t="n"/>
       <c r="N93" s="1" t="n"/>
     </row>
-    <row hidden="1" r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PyrH</t>
@@ -5760,7 +5760,7 @@
       <c r="M94" s="1" t="n"/>
       <c r="N94" s="1" t="n"/>
     </row>
-    <row hidden="1" r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ribosome</t>
@@ -5798,7 +5798,7 @@
       <c r="M95" s="1" t="n"/>
       <c r="N95" s="1" t="n"/>
     </row>
-    <row hidden="1" r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_RnaPolymerase</t>
@@ -5836,7 +5836,7 @@
       <c r="M96" s="1" t="n"/>
       <c r="N96" s="1" t="n"/>
     </row>
-    <row hidden="1" r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rnase</t>
@@ -5874,7 +5874,7 @@
       <c r="M97" s="1" t="n"/>
       <c r="N97" s="1" t="n"/>
     </row>
-    <row hidden="1" r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rpe</t>
@@ -5912,7 +5912,7 @@
       <c r="M98" s="1" t="n"/>
       <c r="N98" s="1" t="n"/>
     </row>
-    <row hidden="1" r="99">
+    <row r="99" hidden="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Tim</t>
@@ -5950,7 +5950,7 @@
       <c r="M99" s="1" t="n"/>
       <c r="N99" s="1" t="n"/>
     </row>
-    <row hidden="1" r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_TklB</t>
@@ -5988,7 +5988,7 @@
       <c r="M100" s="1" t="n"/>
       <c r="N100" s="1" t="n"/>
     </row>
-    <row hidden="1" r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Udk</t>
@@ -6330,7 +6330,7 @@
       <c r="M109" s="1" t="n"/>
       <c r="N109" s="1" t="n"/>
     </row>
-    <row hidden="1" r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>Tkl_S7P</t>
@@ -6368,7 +6368,7 @@
       <c r="M110" s="1" t="n"/>
       <c r="N110" s="1" t="n"/>
     </row>
-    <row hidden="1" r="111">
+    <row r="111" hidden="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Transcription_Adk</t>
@@ -6406,7 +6406,7 @@
       <c r="M111" s="1" t="n"/>
       <c r="N111" s="1" t="n"/>
     </row>
-    <row hidden="1" r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Transcription_Apt</t>
@@ -6444,7 +6444,7 @@
       <c r="M112" s="1" t="n"/>
       <c r="N112" s="1" t="n"/>
     </row>
-    <row hidden="1" r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Transcription_Cmk</t>
@@ -6482,7 +6482,7 @@
       <c r="M113" s="1" t="n"/>
       <c r="N113" s="1" t="n"/>
     </row>
-    <row hidden="1" r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>Transcription_Eno</t>
@@ -6520,7 +6520,7 @@
       <c r="M114" s="1" t="n"/>
       <c r="N114" s="1" t="n"/>
     </row>
-    <row hidden="1" r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Transcription_Fba</t>
@@ -6558,7 +6558,7 @@
       <c r="M115" s="1" t="n"/>
       <c r="N115" s="1" t="n"/>
     </row>
-    <row hidden="1" r="116">
+    <row r="116" hidden="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gap</t>
@@ -6596,7 +6596,7 @@
       <c r="M116" s="1" t="n"/>
       <c r="N116" s="1" t="n"/>
     </row>
-    <row hidden="1" r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gk</t>
@@ -6634,7 +6634,7 @@
       <c r="M117" s="1" t="n"/>
       <c r="N117" s="1" t="n"/>
     </row>
-    <row hidden="1" r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Transcription_Hpt</t>
@@ -6672,7 +6672,7 @@
       <c r="M118" s="1" t="n"/>
       <c r="N118" s="1" t="n"/>
     </row>
-    <row hidden="1" r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Transcription_LacA</t>
@@ -6710,7 +6710,7 @@
       <c r="M119" s="1" t="n"/>
       <c r="N119" s="1" t="n"/>
     </row>
-    <row hidden="1" r="120">
+    <row r="120" hidden="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ldh</t>
@@ -6748,7 +6748,7 @@
       <c r="M120" s="1" t="n"/>
       <c r="N120" s="1" t="n"/>
     </row>
-    <row hidden="1" r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Transcription_Nox</t>
@@ -6786,7 +6786,7 @@
       <c r="M121" s="1" t="n"/>
       <c r="N121" s="1" t="n"/>
     </row>
-    <row hidden="1" r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Transcription_PeptAbcTransporter</t>
@@ -6824,7 +6824,7 @@
       <c r="M122" s="1" t="n"/>
       <c r="N122" s="1" t="n"/>
     </row>
-    <row hidden="1" r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pfk</t>
@@ -6862,7 +6862,7 @@
       <c r="M123" s="1" t="n"/>
       <c r="N123" s="1" t="n"/>
     </row>
-    <row hidden="1" r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Transcription_PgiB</t>
@@ -6900,7 +6900,7 @@
       <c r="M124" s="1" t="n"/>
       <c r="N124" s="1" t="n"/>
     </row>
-    <row hidden="1" r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgk</t>
@@ -6938,7 +6938,7 @@
       <c r="M125" s="1" t="n"/>
       <c r="N125" s="1" t="n"/>
     </row>
-    <row hidden="1" r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgm</t>
@@ -6976,7 +6976,7 @@
       <c r="M126" s="1" t="n"/>
       <c r="N126" s="1" t="n"/>
     </row>
-    <row hidden="1" r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Transcription_PiAbcTransporter</t>
@@ -7014,7 +7014,7 @@
       <c r="M127" s="1" t="n"/>
       <c r="N127" s="1" t="n"/>
     </row>
-    <row hidden="1" r="128">
+    <row r="128" hidden="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ppa</t>
@@ -7052,7 +7052,7 @@
       <c r="M128" s="1" t="n"/>
       <c r="N128" s="1" t="n"/>
     </row>
-    <row hidden="1" r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Transcription_Prs</t>
@@ -7090,7 +7090,7 @@
       <c r="M129" s="1" t="n"/>
       <c r="N129" s="1" t="n"/>
     </row>
-    <row hidden="1" r="130">
+    <row r="130" hidden="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pts</t>
@@ -7128,7 +7128,7 @@
       <c r="M130" s="1" t="n"/>
       <c r="N130" s="1" t="n"/>
     </row>
-    <row hidden="1" r="131">
+    <row r="131" hidden="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pyk</t>
@@ -7166,7 +7166,7 @@
       <c r="M131" s="1" t="n"/>
       <c r="N131" s="1" t="n"/>
     </row>
-    <row hidden="1" r="132">
+    <row r="132" hidden="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>Transcription_PyrH</t>
@@ -7204,7 +7204,7 @@
       <c r="M132" s="1" t="n"/>
       <c r="N132" s="1" t="n"/>
     </row>
-    <row hidden="1" r="133">
+    <row r="133" hidden="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ribosome</t>
@@ -7242,7 +7242,7 @@
       <c r="M133" s="1" t="n"/>
       <c r="N133" s="1" t="n"/>
     </row>
-    <row hidden="1" r="134">
+    <row r="134" hidden="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>Transcription_RnaPolymerase</t>
@@ -7280,7 +7280,7 @@
       <c r="M134" s="1" t="n"/>
       <c r="N134" s="1" t="n"/>
     </row>
-    <row hidden="1" r="135">
+    <row r="135" hidden="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rnase</t>
@@ -7318,7 +7318,7 @@
       <c r="M135" s="1" t="n"/>
       <c r="N135" s="1" t="n"/>
     </row>
-    <row hidden="1" r="136">
+    <row r="136" hidden="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rpe</t>
@@ -7356,7 +7356,7 @@
       <c r="M136" s="1" t="n"/>
       <c r="N136" s="1" t="n"/>
     </row>
-    <row hidden="1" r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>Transcription_Tim</t>
@@ -7394,7 +7394,7 @@
       <c r="M137" s="1" t="n"/>
       <c r="N137" s="1" t="n"/>
     </row>
-    <row hidden="1" r="138">
+    <row r="138" hidden="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>Transcription_TklB</t>
@@ -7432,7 +7432,7 @@
       <c r="M138" s="1" t="n"/>
       <c r="N138" s="1" t="n"/>
     </row>
-    <row hidden="1" r="139">
+    <row r="139" hidden="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Transcription_Udk</t>
@@ -7470,7 +7470,7 @@
       <c r="M139" s="1" t="n"/>
       <c r="N139" s="1" t="n"/>
     </row>
-    <row hidden="1" r="140">
+    <row r="140" hidden="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Transcription_Upp</t>
@@ -7508,7 +7508,7 @@
       <c r="M140" s="1" t="n"/>
       <c r="N140" s="1" t="n"/>
     </row>
-    <row hidden="1" r="141">
+    <row r="141" hidden="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>Translation_Adk</t>
@@ -7546,7 +7546,7 @@
       <c r="M141" s="1" t="n"/>
       <c r="N141" s="1" t="n"/>
     </row>
-    <row hidden="1" r="142">
+    <row r="142" hidden="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>Translation_Apt</t>
@@ -7584,7 +7584,7 @@
       <c r="M142" s="1" t="n"/>
       <c r="N142" s="1" t="n"/>
     </row>
-    <row hidden="1" r="143">
+    <row r="143" hidden="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>Translation_Cmk</t>
@@ -7622,7 +7622,7 @@
       <c r="M143" s="1" t="n"/>
       <c r="N143" s="1" t="n"/>
     </row>
-    <row hidden="1" r="144">
+    <row r="144" hidden="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>Translation_Eno</t>
@@ -7660,7 +7660,7 @@
       <c r="M144" s="1" t="n"/>
       <c r="N144" s="1" t="n"/>
     </row>
-    <row hidden="1" r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>Translation_Fba</t>
@@ -7698,7 +7698,7 @@
       <c r="M145" s="1" t="n"/>
       <c r="N145" s="1" t="n"/>
     </row>
-    <row hidden="1" r="146">
+    <row r="146" hidden="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
           <t>Translation_Gap</t>
@@ -7736,7 +7736,7 @@
       <c r="M146" s="1" t="n"/>
       <c r="N146" s="1" t="n"/>
     </row>
-    <row hidden="1" r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="1" t="inlineStr">
         <is>
           <t>Translation_Gk</t>
@@ -7774,7 +7774,7 @@
       <c r="M147" s="1" t="n"/>
       <c r="N147" s="1" t="n"/>
     </row>
-    <row hidden="1" r="148">
+    <row r="148" hidden="1">
       <c r="A148" s="1" t="inlineStr">
         <is>
           <t>Translation_Hpt</t>
@@ -7812,7 +7812,7 @@
       <c r="M148" s="1" t="n"/>
       <c r="N148" s="1" t="n"/>
     </row>
-    <row hidden="1" r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="1" t="inlineStr">
         <is>
           <t>Translation_LacA</t>
@@ -7850,7 +7850,7 @@
       <c r="M149" s="1" t="n"/>
       <c r="N149" s="1" t="n"/>
     </row>
-    <row hidden="1" r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="1" t="inlineStr">
         <is>
           <t>Translation_Ldh</t>
@@ -7888,7 +7888,7 @@
       <c r="M150" s="1" t="n"/>
       <c r="N150" s="1" t="n"/>
     </row>
-    <row hidden="1" r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="1" t="inlineStr">
         <is>
           <t>Translation_Nox</t>
@@ -7926,7 +7926,7 @@
       <c r="M151" s="1" t="n"/>
       <c r="N151" s="1" t="n"/>
     </row>
-    <row hidden="1" r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="1" t="inlineStr">
         <is>
           <t>Translation_PeptAbcTransporter</t>
@@ -7964,7 +7964,7 @@
       <c r="M152" s="1" t="n"/>
       <c r="N152" s="1" t="n"/>
     </row>
-    <row hidden="1" r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="1" t="inlineStr">
         <is>
           <t>Translation_Pfk</t>
@@ -8002,7 +8002,7 @@
       <c r="M153" s="1" t="n"/>
       <c r="N153" s="1" t="n"/>
     </row>
-    <row hidden="1" r="154">
+    <row r="154" hidden="1">
       <c r="A154" s="1" t="inlineStr">
         <is>
           <t>Translation_PgiB</t>
@@ -8040,7 +8040,7 @@
       <c r="M154" s="1" t="n"/>
       <c r="N154" s="1" t="n"/>
     </row>
-    <row hidden="1" r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgk</t>
@@ -8078,7 +8078,7 @@
       <c r="M155" s="1" t="n"/>
       <c r="N155" s="1" t="n"/>
     </row>
-    <row hidden="1" r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgm</t>
@@ -8116,7 +8116,7 @@
       <c r="M156" s="1" t="n"/>
       <c r="N156" s="1" t="n"/>
     </row>
-    <row hidden="1" r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="1" t="inlineStr">
         <is>
           <t>Translation_PiAbcTransporter</t>
@@ -8154,7 +8154,7 @@
       <c r="M157" s="1" t="n"/>
       <c r="N157" s="1" t="n"/>
     </row>
-    <row hidden="1" r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="1" t="inlineStr">
         <is>
           <t>Translation_Ppa</t>
@@ -8192,7 +8192,7 @@
       <c r="M158" s="1" t="n"/>
       <c r="N158" s="1" t="n"/>
     </row>
-    <row hidden="1" r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="1" t="inlineStr">
         <is>
           <t>Translation_Prs</t>
@@ -8230,7 +8230,7 @@
       <c r="M159" s="1" t="n"/>
       <c r="N159" s="1" t="n"/>
     </row>
-    <row hidden="1" r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="1" t="inlineStr">
         <is>
           <t>Translation_Pts</t>
@@ -8268,7 +8268,7 @@
       <c r="M160" s="1" t="n"/>
       <c r="N160" s="1" t="n"/>
     </row>
-    <row hidden="1" r="161">
+    <row r="161" hidden="1">
       <c r="A161" s="1" t="inlineStr">
         <is>
           <t>Translation_Pyk</t>
@@ -8306,7 +8306,7 @@
       <c r="M161" s="1" t="n"/>
       <c r="N161" s="1" t="n"/>
     </row>
-    <row hidden="1" r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="1" t="inlineStr">
         <is>
           <t>Translation_PyrH</t>
@@ -8344,7 +8344,7 @@
       <c r="M162" s="1" t="n"/>
       <c r="N162" s="1" t="n"/>
     </row>
-    <row hidden="1" r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="1" t="inlineStr">
         <is>
           <t>Translation_Ribosome</t>
@@ -8382,7 +8382,7 @@
       <c r="M163" s="1" t="n"/>
       <c r="N163" s="1" t="n"/>
     </row>
-    <row hidden="1" r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="1" t="inlineStr">
         <is>
           <t>Translation_RnaPolymerase</t>
@@ -8420,7 +8420,7 @@
       <c r="M164" s="1" t="n"/>
       <c r="N164" s="1" t="n"/>
     </row>
-    <row hidden="1" r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="1" t="inlineStr">
         <is>
           <t>Translation_Rnase</t>
@@ -8458,7 +8458,7 @@
       <c r="M165" s="1" t="n"/>
       <c r="N165" s="1" t="n"/>
     </row>
-    <row hidden="1" r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="1" t="inlineStr">
         <is>
           <t>Translation_Rpe</t>
@@ -8496,7 +8496,7 @@
       <c r="M166" s="1" t="n"/>
       <c r="N166" s="1" t="n"/>
     </row>
-    <row hidden="1" r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="1" t="inlineStr">
         <is>
           <t>Translation_Tim</t>
@@ -8534,7 +8534,7 @@
       <c r="M167" s="1" t="n"/>
       <c r="N167" s="1" t="n"/>
     </row>
-    <row hidden="1" r="168">
+    <row r="168" hidden="1">
       <c r="A168" s="1" t="inlineStr">
         <is>
           <t>Translation_TklB</t>
@@ -8572,7 +8572,7 @@
       <c r="M168" s="1" t="n"/>
       <c r="N168" s="1" t="n"/>
     </row>
-    <row hidden="1" r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="1" t="inlineStr">
         <is>
           <t>Translation_Udk</t>
@@ -10248,8 +10248,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -10262,36 +10262,36 @@
   <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="G107" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G107" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="38.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="8.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="4.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="43.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="5.25"/>
-    <col customWidth="1" max="9" min="8" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="10" min="10" style="1" width="22.6"/>
-    <col customWidth="1" max="1026" min="11" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="11" width="9"/>
+    <col width="38.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="4.875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="43.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="5.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="8" max="9"/>
+    <col width="22.6" customWidth="1" style="1" min="10" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="11" max="1026"/>
+    <col width="9" customWidth="1" style="11" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -10353,7 +10353,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>AK_AMP-backward</t>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="I3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AK_AMP-forward</t>
@@ -10418,7 +10418,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>AK_GTP-forward</t>
@@ -10445,7 +10445,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>AlaAbcTransport-forward</t>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>APRT-forward</t>
@@ -10499,7 +10499,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ArgAbcTransport-forward</t>
@@ -10526,7 +10526,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>AsnAbcTransport-forward</t>
@@ -10553,7 +10553,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>AspAbcTransport-forward</t>
@@ -10580,7 +10580,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>CmpK_CMP-forward</t>
@@ -10607,7 +10607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>CysAbcTransport-forward</t>
@@ -10634,7 +10634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Eno-forward</t>
@@ -10661,7 +10661,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Fba_FDP-forward</t>
@@ -10688,7 +10688,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GapDH-forward</t>
@@ -10715,7 +10715,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>GlcPtsTransport-forward</t>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>GlnAbcTransport-forward</t>
@@ -10769,7 +10769,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GluAbcTransport-forward</t>
@@ -10796,7 +10796,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>GlyAbcTransport-forward</t>
@@ -10823,7 +10823,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Gpm-forward</t>
@@ -10850,7 +10850,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>GUK_GMP-forward</t>
@@ -10877,7 +10877,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>HisAbcTransport-forward</t>
@@ -10904,7 +10904,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>HPRT-forward</t>
@@ -10931,7 +10931,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>IleAbcTransport-forward</t>
@@ -10958,7 +10958,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Ldh-forward</t>
@@ -10985,7 +10985,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>LeuAbcTransport-forward</t>
@@ -11012,7 +11012,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>LysAbcTransport-forward</t>
@@ -11039,7 +11039,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>MetAbcTransport-forward</t>
@@ -11066,7 +11066,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>NOX-forward</t>
@@ -11093,7 +11093,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Pfk_ATP-forward</t>
@@ -11120,7 +11120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Pfk_GTP-forward</t>
@@ -11147,7 +11147,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Pfk_UTP-forward</t>
@@ -11174,7 +11174,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Pgi-forward</t>
@@ -11201,7 +11201,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Pgk_ATP-forward</t>
@@ -11228,7 +11228,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Pgk_GTP-forward</t>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>PheAbcTransport-forward</t>
@@ -11282,7 +11282,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransport-forward</t>
@@ -11309,7 +11309,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Ppa-forward</t>
@@ -11336,7 +11336,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>ProAbcTransport-forward</t>
@@ -11363,7 +11363,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>PRPS-forward</t>
@@ -11390,7 +11390,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Pyk_ATP-forward</t>
@@ -11417,7 +11417,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Pyk_CTP-forward</t>
@@ -11444,7 +11444,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Pyk_GTP-forward</t>
@@ -11471,7 +11471,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>PykUDP-forward</t>
@@ -11498,7 +11498,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Adk-forward</t>
@@ -11525,7 +11525,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Apt-forward</t>
@@ -11552,7 +11552,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Cmk-forward</t>
@@ -11579,7 +11579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Eno-forward</t>
@@ -11606,7 +11606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Fba-forward</t>
@@ -11633,7 +11633,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gap-forward</t>
@@ -11660,7 +11660,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Gk-forward</t>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Hpt-forward</t>
@@ -11714,7 +11714,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_LacA-forward</t>
@@ -11741,7 +11741,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ldh-forward</t>
@@ -11768,7 +11768,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Nox-forward</t>
@@ -11795,7 +11795,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PeptAbcTransporter-forward</t>
@@ -11822,7 +11822,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pfk-forward</t>
@@ -11849,7 +11849,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PgiB-forward</t>
@@ -11876,7 +11876,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgk-forward</t>
@@ -11903,7 +11903,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pgm-forward</t>
@@ -11930,7 +11930,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PiAbcTransporter-forward</t>
@@ -11957,7 +11957,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ppa-forward</t>
@@ -11984,7 +11984,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Prs-forward</t>
@@ -12011,7 +12011,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pts-forward</t>
@@ -12038,7 +12038,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Pyk-forward</t>
@@ -12065,7 +12065,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_PyrH-forward</t>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Ribosome-forward</t>
@@ -12119,7 +12119,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_RnaPolymerase-forward</t>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rnase-forward</t>
@@ -12173,7 +12173,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Rpe-forward</t>
@@ -12200,7 +12200,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Tim-forward</t>
@@ -12227,7 +12227,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_TklB-forward</t>
@@ -12254,7 +12254,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Udk-forward</t>
@@ -12281,7 +12281,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation_Upp-forward</t>
@@ -12308,7 +12308,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Rpe-forward</t>
@@ -12335,7 +12335,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>RpiA-forward</t>
@@ -12362,7 +12362,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>SerAbcTransport-forward</t>
@@ -12389,7 +12389,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>ThrAbcTransport-forward</t>
@@ -12416,7 +12416,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>Tim-forward</t>
@@ -12443,7 +12443,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>Tkl_F6P-forward</t>
@@ -12470,7 +12470,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>Tkl_S7P-forward</t>
@@ -12497,7 +12497,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Transcription_Adk-forward</t>
@@ -12524,7 +12524,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Transcription_Apt-forward</t>
@@ -12551,7 +12551,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Transcription_Cmk-forward</t>
@@ -12578,7 +12578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Transcription_Eno-forward</t>
@@ -12605,7 +12605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Transcription_Fba-forward</t>
@@ -12632,7 +12632,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gap-forward</t>
@@ -12659,7 +12659,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Transcription_Gk-forward</t>
@@ -12686,7 +12686,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Transcription_Hpt-forward</t>
@@ -12713,7 +12713,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Transcription_LacA-forward</t>
@@ -12740,7 +12740,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ldh-forward</t>
@@ -12767,7 +12767,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Transcription_Nox-forward</t>
@@ -12794,7 +12794,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Transcription_PeptAbcTransporter-forward</t>
@@ -12821,7 +12821,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pfk-forward</t>
@@ -12848,7 +12848,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Transcription_PgiB-forward</t>
@@ -12875,7 +12875,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgk-forward</t>
@@ -12902,7 +12902,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pgm-forward</t>
@@ -12929,7 +12929,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Transcription_PiAbcTransporter-forward</t>
@@ -12956,7 +12956,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ppa-forward</t>
@@ -12983,7 +12983,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Transcription_Prs-forward</t>
@@ -13010,7 +13010,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pts-forward</t>
@@ -13037,7 +13037,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Transcription_Pyk-forward</t>
@@ -13064,7 +13064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Transcription_PyrH-forward</t>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Transcription_Ribosome-forward</t>
@@ -13118,7 +13118,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>Transcription_RnaPolymerase-forward</t>
@@ -13145,7 +13145,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rnase-forward</t>
@@ -13172,7 +13172,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>Transcription_Rpe-forward</t>
@@ -13199,7 +13199,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>Transcription_Tim-forward</t>
@@ -13226,7 +13226,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>Transcription_TklB-forward</t>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>Transcription_Udk-forward</t>
@@ -13280,7 +13280,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Transcription_Upp-forward</t>
@@ -13307,7 +13307,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Translation_Adk-forward</t>
@@ -13334,7 +13334,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>Translation_Apt-forward</t>
@@ -13361,7 +13361,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>Translation_Cmk-forward</t>
@@ -13388,7 +13388,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>Translation_Eno-forward</t>
@@ -13415,7 +13415,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Translation_Fba-forward</t>
@@ -13442,7 +13442,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Translation_Gap-forward</t>
@@ -13469,7 +13469,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Translation_Gk-forward</t>
@@ -13496,7 +13496,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Translation_Hpt-forward</t>
@@ -13523,7 +13523,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Translation_LacA-forward</t>
@@ -13550,7 +13550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>Translation_Ldh-forward</t>
@@ -13577,7 +13577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>Translation_Nox-forward</t>
@@ -13604,7 +13604,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>Translation_PeptAbcTransporter-forward</t>
@@ -13631,7 +13631,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>Translation_Pfk-forward</t>
@@ -13658,7 +13658,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>Translation_PgiB-forward</t>
@@ -13685,7 +13685,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgk-forward</t>
@@ -13712,7 +13712,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Translation_Pgm-forward</t>
@@ -13739,7 +13739,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Translation_PiAbcTransporter-forward</t>
@@ -13766,7 +13766,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>Translation_Ppa-forward</t>
@@ -13793,7 +13793,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>Translation_Prs-forward</t>
@@ -13820,7 +13820,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>Translation_Pts-forward</t>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>Translation_Pyk-forward</t>
@@ -13874,7 +13874,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>Translation_PyrH-forward</t>
@@ -13901,7 +13901,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>Translation_Ribosome-forward</t>
@@ -13928,7 +13928,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Translation_RnaPolymerase-forward</t>
@@ -13955,7 +13955,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Translation_Rnase-forward</t>
@@ -13982,7 +13982,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>Translation_Rpe-forward</t>
@@ -14009,7 +14009,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>Translation_Tim-forward</t>
@@ -14036,7 +14036,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Translation_TklB-forward</t>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Translation_Udk-forward</t>
@@ -14090,7 +14090,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>Translation_Upp-forward</t>
@@ -14117,7 +14117,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>TrpAbcTransport-forward</t>
@@ -14144,7 +14144,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>TyrAbcTransport-forward</t>
@@ -14171,7 +14171,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>Uck_CYTD-forward</t>
@@ -14198,7 +14198,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>Uck_URI-forward</t>
@@ -14225,7 +14225,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
           <t>UmpK-forward</t>
@@ -14252,7 +14252,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="1" t="inlineStr">
         <is>
           <t>UPRT-forward</t>
@@ -14308,8 +14308,8 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:L147"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -14322,29 +14322,29 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="22.6"/>
-    <col customWidth="1" max="3" min="2" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="1" width="47.5666666666667"/>
-    <col customWidth="1" max="1028" min="5" style="1" width="9.108333333333331"/>
+    <col width="22.6" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="2" max="3"/>
+    <col width="47.5666666666667" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="5" max="1028"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -14450,8 +14450,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -14472,30 +14472,30 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="17" width="20.25"/>
-    <col customWidth="1" max="2" min="2" style="17" width="26.1416666666667"/>
-    <col customWidth="1" max="9" min="3" style="17" width="11.25"/>
-    <col customWidth="1" max="10" min="10" style="17" width="10.3916666666667"/>
-    <col customWidth="1" max="1026" min="11" style="17" width="8.78333333333333"/>
+    <col width="20.25" customWidth="1" style="17" min="1" max="1"/>
+    <col width="26.1416666666667" customWidth="1" style="17" min="2" max="2"/>
+    <col width="11.25" customWidth="1" style="17" min="3" max="9"/>
+    <col width="10.3916666666667" customWidth="1" style="17" min="10" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="17" min="11" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -14547,7 +14547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
         <is>
           <t>Metabolism_net_rxn</t>
@@ -14620,8 +14620,8 @@
       <c r="J4" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -14634,36 +14634,36 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="38.125"/>
-    <col customWidth="1" max="2" min="2" style="13" width="22.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="13" width="20.7833333333333"/>
-    <col customWidth="1" max="4" min="4" style="13" width="9.108333333333331"/>
-    <col customWidth="1" max="5" min="5" style="13" width="10.3916666666667"/>
-    <col customWidth="1" max="6" min="6" style="13" width="9.108333333333331"/>
-    <col customWidth="1" max="10" min="7" style="13" width="8.78333333333333"/>
-    <col customWidth="1" max="11" min="11" style="13" width="16.5"/>
-    <col customWidth="1" max="1023" min="12" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="1024" min="1024" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" style="10" width="8.78333333333333"/>
+    <col width="38.125" customWidth="1" style="13" min="1" max="1"/>
+    <col width="22.3916666666667" customWidth="1" style="13" min="2" max="2"/>
+    <col width="20.7833333333333" customWidth="1" style="13" min="3" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="4" max="4"/>
+    <col width="10.3916666666667" customWidth="1" style="13" min="5" max="5"/>
+    <col width="9.108333333333331" customWidth="1" style="13" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="13" min="7" max="10"/>
+    <col width="16.5" customWidth="1" style="13" min="11" max="11"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="12" max="1023"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1024" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" style="10" min="1025" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -14720,7 +14720,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ALA[c]</t>
@@ -14755,7 +14755,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-AMP[c]</t>
@@ -14785,7 +14785,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ARG[c]</t>
@@ -14815,7 +14815,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ASN[c]</t>
@@ -14854,7 +14854,7 @@
       <c r="J6" s="17" t="n"/>
       <c r="K6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ASP[c]</t>
@@ -14884,7 +14884,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ATP[c]</t>
@@ -14914,7 +14914,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CMP[c]</t>
@@ -14944,7 +14944,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CTP[c]</t>
@@ -14974,7 +14974,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-CYS[c]</t>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GDP[c]</t>
@@ -15034,7 +15034,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLN[c]</t>
@@ -15064,7 +15064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLU[c]</t>
@@ -15094,7 +15094,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GLY[c]</t>
@@ -15124,7 +15124,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GMP[c]</t>
@@ -15154,7 +15154,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-GTP[c]</t>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-H2O[c]</t>
@@ -15214,7 +15214,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-H[c]</t>
@@ -15244,7 +15244,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-HIS[c]</t>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-ILE[c]</t>
@@ -15304,7 +15304,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-LEU[c]</t>
@@ -15334,7 +15334,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-LYS[c]</t>
@@ -15364,7 +15364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-MET[c]</t>
@@ -15394,7 +15394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PHE[c]</t>
@@ -15424,7 +15424,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-Pi[c]</t>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PPi[c]</t>
@@ -15484,7 +15484,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-PRO[c]</t>
@@ -15514,7 +15514,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-SER[c]</t>
@@ -15544,7 +15544,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-THR[c]</t>
@@ -15574,7 +15574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-TRP[c]</t>
@@ -15604,7 +15604,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-TYR[c]</t>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-UMP[c]</t>
@@ -15664,7 +15664,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-UTP[c]</t>
@@ -15694,7 +15694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Metabolism_net_rxn-VAL[c]</t>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="13" t="inlineStr">
         <is>
           <t>dfba-net-species-Other_net_rxn-PPi[c]</t>
@@ -15785,8 +15785,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -15799,27 +15799,27 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="21.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.625"/>
-    <col customWidth="1" max="1026" min="5" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="11" width="9"/>
+    <col width="21.75" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.75" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="5" max="1026"/>
+    <col width="9" customWidth="1" style="11" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -18190,8 +18190,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K96"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -18204,31 +18204,31 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="10" width="11.125"/>
-    <col customWidth="1" max="2" min="2" style="10" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="10" width="30"/>
-    <col customWidth="1" max="4" min="4" style="10" width="12.25"/>
-    <col customWidth="1" max="1024" min="5" style="10" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" width="8.78333333333333"/>
+    <col width="11.125" customWidth="1" style="10" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="10" min="2" max="2"/>
+    <col width="30" customWidth="1" style="10" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="10" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="10" min="5" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" min="1025" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18275,7 +18275,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
@@ -18294,8 +18294,8 @@
       <c r="G4" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -18316,28 +18316,28 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="J3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="R49" pane="bottomRight" sqref="R49"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="14"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13.3916666666667"/>
-    <col customWidth="1" max="1034" min="3" style="1" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="3" max="1034"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="9" t="inlineStr">
         <is>
           <t>!Genotype</t>
@@ -18359,7 +18359,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18476,34 +18476,34 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="C4" s="7" t="n"/>
       <c r="D4" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="C5" s="7" t="n"/>
       <c r="D5" s="7" t="n"/>
       <c r="I5" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="C6" s="7" t="n"/>
       <c r="D6" s="7" t="n"/>
       <c r="I6" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
       <c r="I7" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="C9" s="7" t="n"/>
       <c r="D9" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
     </row>
@@ -18518,8 +18518,8 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -18540,26 +18540,26 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B9" pane="topRight" sqref="B9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="13.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="4" width="51.525"/>
-    <col customWidth="1" max="1025" min="3" style="4" width="8.78333333333333"/>
+    <col width="13.3916666666667" customWidth="1" style="4" min="1" max="1"/>
+    <col width="51.525" customWidth="1" style="4" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="3" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18571,7 +18571,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -18583,7 +18583,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="22" t="inlineStr">
         <is>
           <t>!Version</t>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="22" t="inlineStr">
         <is>
           <t>!URL</t>
@@ -18607,7 +18607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="22" t="inlineStr">
         <is>
           <t>!Branch</t>
@@ -18619,7 +18619,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
           <t>!Revision</t>
@@ -18631,7 +18631,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="22" t="inlineStr">
         <is>
           <t>!wc_lang version</t>
@@ -18643,7 +18643,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="22" t="inlineStr">
         <is>
           <t>!Time units</t>
@@ -18655,7 +18655,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="22" t="inlineStr">
         <is>
           <t>!Identifiers</t>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="22" t="inlineStr">
         <is>
           <t>!Comments</t>
@@ -18679,7 +18679,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="22" t="inlineStr">
         <is>
           <t>!Created</t>
@@ -18706,10 +18706,10 @@
   </sheetData>
   <autoFilter ref="A1:B12"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://github.com/org/repo" ref="B4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="https://github.com/org/repo" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -18722,28 +18722,28 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomRight" sqref="A2:E4"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="14"/>
-    <col customWidth="1" max="3" min="2" style="1" width="13.3916666666667"/>
-    <col customWidth="1" max="1017" min="4" style="1" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="1" min="2" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="4" max="1017"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18775,16 +18775,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3"/>
-    <row customHeight="1" ht="15.1" r="4"/>
-    <row customHeight="1" ht="15.1" r="5"/>
-    <row customHeight="1" ht="15.1" r="6"/>
-    <row customHeight="1" ht="15.1" r="7"/>
-    <row customHeight="1" ht="15.1" r="8"/>
-    <row customHeight="1" ht="15.1" r="9"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -18805,38 +18805,38 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="J2" pane="bottomRight" sqref="J2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="15.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="14.75"/>
-    <col customWidth="1" max="5" min="3" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="6" min="6" style="1" width="25.625"/>
-    <col customWidth="1" max="1023" min="7" style="1" width="9.108333333333331"/>
-    <col customWidth="1" max="1024" min="1024" width="9.108333333333331"/>
+    <col width="15.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.75" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="3" max="5"/>
+    <col width="25.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="1" min="7" max="1023"/>
+    <col width="9.108333333333331" customWidth="1" min="1024" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="8" t="inlineStr">
         <is>
           <t>!Process</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -18908,32 +18908,32 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="C4" s="7" t="n"/>
       <c r="D4" s="7" t="n"/>
       <c r="I4" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="C5" s="7" t="n"/>
       <c r="D5" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="C6" s="7" t="n"/>
       <c r="D6" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="C9" s="7" t="n"/>
       <c r="D9" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
     </row>
@@ -18945,8 +18945,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -18967,25 +18967,25 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I31" pane="bottomRight" sqref="I31"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="7" min="7" style="4" width="19.125"/>
-    <col customWidth="1" max="1025" min="8" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="5" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1" max="6"/>
+    <col width="19.125" customWidth="1" style="4" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="8" max="1025"/>
+    <col width="9" customWidth="1" style="5" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19469,8 +19469,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R22"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -19483,22 +19483,22 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E6" pane="bottomRight" sqref="E6"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="1" width="9"/>
+    <col width="9" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19626,10 +19626,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="author@organization.edu" ref="H2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://www.organization.edu" ref="I2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" display="author@organization.edu" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I2" display="https://www.organization.edu" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19642,22 +19642,22 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="L1" pane="bottomRight" sqref="L1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="1" width="9"/>
+    <col width="9" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19749,7 +19749,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19762,27 +19762,27 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B7" pane="topRight" sqref="B7"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="1" width="29.775"/>
-    <col customWidth="1" max="1025" min="3" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="11" width="9"/>
+    <col width="10.3916666666667" customWidth="1" style="1" min="1" max="1"/>
+    <col width="29.775" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="3" max="1025"/>
+    <col width="9" customWidth="1" style="11" min="1026" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -19794,7 +19794,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Name</t>
@@ -19806,7 +19806,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="22" t="inlineStr">
         <is>
           <t>!Rank</t>
@@ -19818,7 +19818,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="22" t="inlineStr">
         <is>
           <t>!Identifiers</t>
@@ -19830,7 +19830,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="22" t="inlineStr">
         <is>
           <t>!Comments</t>
@@ -19850,8 +19850,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -19864,24 +19864,24 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A5" pane="topRight" sqref="$A5:$XFD6"/>
+      <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="1" width="18.375"/>
-    <col customWidth="1" max="1018" min="3" style="1" width="8.78333333333333"/>
-    <col customWidth="1" max="1019" min="1019" style="23" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1020" style="23" width="9"/>
+    <col width="18.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="18.375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="1" min="3" max="1018"/>
+    <col width="8.78333333333333" customWidth="1" style="23" min="1019" max="1019"/>
+    <col width="9" customWidth="1" style="23" min="1020" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -19963,7 +19963,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19976,30 +19976,30 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E1" pane="bottomRight" sqref="E1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="4" width="13.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="4" width="10.925"/>
-    <col customWidth="1" max="7" min="4" style="4" width="11.675"/>
-    <col customWidth="1" max="8" min="8" style="4" width="11.3583333333333"/>
-    <col customWidth="1" max="1026" min="9" style="4" width="8.78333333333333"/>
+    <col width="13.3916666666667" customWidth="1" style="4" min="1" max="2"/>
+    <col width="10.925" customWidth="1" style="4" min="3" max="3"/>
+    <col width="11.675" customWidth="1" style="4" min="4" max="7"/>
+    <col width="11.3583333333333" customWidth="1" style="4" min="8" max="8"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="9" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -20041,7 +20041,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Metabolism</t>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="H3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>RnaDegradation</t>
@@ -20092,7 +20092,7 @@
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Transcription</t>
@@ -20138,8 +20138,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H5"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -20152,34 +20152,34 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="G3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="R2" pane="bottomRight" sqref="R2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="6.10833333333333"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="4" width="24.125"/>
-    <col customWidth="1" max="4" min="4" style="4" width="17.5"/>
-    <col customWidth="1" max="7" min="5" style="4" width="14.1416666666667"/>
-    <col customWidth="1" max="20" min="8" style="4" width="11.7833333333333"/>
-    <col customWidth="1" max="21" min="21" style="4" width="11.3583333333333"/>
-    <col customWidth="1" max="1032" min="22" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="1035" min="1033" width="8.78333333333333"/>
+    <col width="6.10833333333333" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="4" min="2" max="2"/>
+    <col width="24.125" customWidth="1" style="4" min="3" max="3"/>
+    <col width="17.5" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.1416666666667" customWidth="1" style="4" min="5" max="7"/>
+    <col width="11.7833333333333" customWidth="1" style="4" min="8" max="20"/>
+    <col width="11.3583333333333" customWidth="1" style="4" min="21" max="21"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="22" max="1032"/>
+    <col width="8.78333333333333" customWidth="1" min="1033" max="1035"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="H2" s="21" t="inlineStr">
         <is>
           <t>!Initial volume</t>
@@ -20191,7 +20191,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -20298,7 +20298,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>c</t>
@@ -20471,8 +20471,8 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -20485,34 +20485,34 @@
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="K2" pane="bottomRight" sqref="K2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="26.025"/>
-    <col customWidth="1" max="1028" min="2" style="4" width="8.78333333333333"/>
+    <col width="26.025" customWidth="1" style="4" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="2" max="1028"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="C2" s="21" t="inlineStr">
         <is>
           <t>!Structure</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AD</t>
@@ -20623,7 +20623,7 @@
       </c>
       <c r="N4" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Adk_Protein</t>
@@ -20655,7 +20655,7 @@
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Adk_Rna</t>
@@ -20687,7 +20687,7 @@
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
@@ -20719,7 +20719,7 @@
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ALA</t>
@@ -20751,7 +20751,7 @@
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>AlaAla</t>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="N9" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>AMP</t>
@@ -20819,7 +20819,7 @@
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Apt_Protein</t>
@@ -20851,7 +20851,7 @@
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Apt_Rna</t>
@@ -20883,7 +20883,7 @@
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>ARG</t>
@@ -20915,7 +20915,7 @@
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>ArgArg</t>
@@ -20951,7 +20951,7 @@
       </c>
       <c r="N14" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>ASN</t>
@@ -20983,7 +20983,7 @@
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>AsnAsn</t>
@@ -21019,7 +21019,7 @@
       </c>
       <c r="N16" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>ASP</t>
@@ -21051,7 +21051,7 @@
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>AspAsp</t>
@@ -21087,7 +21087,7 @@
       </c>
       <c r="N18" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>ATP</t>
@@ -21119,7 +21119,7 @@
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>CDP</t>
@@ -21151,7 +21151,7 @@
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Cmk_Protein</t>
@@ -21183,7 +21183,7 @@
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Cmk_Rna</t>
@@ -21215,7 +21215,7 @@
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>CMP</t>
@@ -21247,7 +21247,7 @@
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
@@ -21283,7 +21283,7 @@
       </c>
       <c r="N24" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>CTP</t>
@@ -21315,7 +21315,7 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>CYS</t>
@@ -21347,7 +21347,7 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>CysCys</t>
@@ -21383,7 +21383,7 @@
       </c>
       <c r="N27" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>CYTD</t>
@@ -21419,7 +21419,7 @@
       </c>
       <c r="N28" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DPG</t>
@@ -21451,7 +21451,7 @@
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>E4P</t>
@@ -21483,7 +21483,7 @@
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Eno_Protein</t>
@@ -21515,7 +21515,7 @@
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Eno_Rna</t>
@@ -21547,7 +21547,7 @@
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>F6P</t>
@@ -21579,7 +21579,7 @@
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Fba_Protein</t>
@@ -21611,7 +21611,7 @@
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Fba_Rna</t>
@@ -21643,7 +21643,7 @@
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>FDP</t>
@@ -21675,7 +21675,7 @@
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>G2P</t>
@@ -21707,7 +21707,7 @@
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>G3P</t>
@@ -21739,7 +21739,7 @@
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>G6P</t>
@@ -21771,7 +21771,7 @@
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>Gap_Protein</t>
@@ -21803,7 +21803,7 @@
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Gap_Rna</t>
@@ -21835,7 +21835,7 @@
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>GDP</t>
@@ -21867,7 +21867,7 @@
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Gk_Protein</t>
@@ -21899,7 +21899,7 @@
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Gk_Rna</t>
@@ -21931,7 +21931,7 @@
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>GLC</t>
@@ -21967,7 +21967,7 @@
       </c>
       <c r="N45" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>GLN</t>
@@ -21999,7 +21999,7 @@
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>GlnGln</t>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="N47" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>GLU</t>
@@ -22067,7 +22067,7 @@
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>GluGlu</t>
@@ -22103,7 +22103,7 @@
       </c>
       <c r="N49" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>GLY</t>
@@ -22135,7 +22135,7 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>GlyGly</t>
@@ -22171,7 +22171,7 @@
       </c>
       <c r="N51" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>GMP</t>
@@ -22203,7 +22203,7 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>GN</t>
@@ -22239,7 +22239,7 @@
       </c>
       <c r="N53" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>GTP</t>
@@ -22271,7 +22271,7 @@
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>H</t>
@@ -22307,7 +22307,7 @@
       </c>
       <c r="N55" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
@@ -22343,7 +22343,7 @@
       </c>
       <c r="N56" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>HIS</t>
@@ -22375,7 +22375,7 @@
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>HisHis</t>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="N58" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Hpt_Protein</t>
@@ -22443,7 +22443,7 @@
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Hpt_Rna</t>
@@ -22475,7 +22475,7 @@
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>ILE</t>
@@ -22507,7 +22507,7 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>IleIle</t>
@@ -22543,7 +22543,7 @@
       </c>
       <c r="N62" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>LAC</t>
@@ -22575,7 +22575,7 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>LacA_Protein</t>
@@ -22607,7 +22607,7 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>LacA_Rna</t>
@@ -22639,7 +22639,7 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Ldh_Protein</t>
@@ -22671,7 +22671,7 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Ldh_Rna</t>
@@ -22703,7 +22703,7 @@
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>LEU</t>
@@ -22735,7 +22735,7 @@
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>LeuLeu</t>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="N69" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>LYS</t>
@@ -22803,7 +22803,7 @@
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>LysLys</t>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="N71" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>MET</t>
@@ -22871,7 +22871,7 @@
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>MetMet</t>
@@ -22907,7 +22907,7 @@
       </c>
       <c r="N73" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>NAD</t>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="N74" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>NADH</t>
@@ -22975,7 +22975,7 @@
       <c r="M75" s="1" t="n"/>
       <c r="N75" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Nox_Protein</t>
@@ -23007,7 +23007,7 @@
       <c r="M76" s="1" t="n"/>
       <c r="N76" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Nox_Rna</t>
@@ -23039,7 +23039,7 @@
       <c r="M77" s="1" t="n"/>
       <c r="N77" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>O2</t>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="N78" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>PEP</t>
@@ -23107,7 +23107,7 @@
       <c r="M79" s="1" t="n"/>
       <c r="N79" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Protein</t>
@@ -23139,7 +23139,7 @@
       <c r="M80" s="1" t="n"/>
       <c r="N80" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Rna</t>
@@ -23171,7 +23171,7 @@
       <c r="M81" s="1" t="n"/>
       <c r="N81" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Pfk_Protein</t>
@@ -23203,7 +23203,7 @@
       <c r="M82" s="1" t="n"/>
       <c r="N82" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Pfk_Rna</t>
@@ -23235,7 +23235,7 @@
       <c r="M83" s="1" t="n"/>
       <c r="N83" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>PgiB_Protein</t>
@@ -23267,7 +23267,7 @@
       <c r="M84" s="1" t="n"/>
       <c r="N84" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>PgiB_Rna</t>
@@ -23299,7 +23299,7 @@
       <c r="M85" s="1" t="n"/>
       <c r="N85" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>Pgk_Protein</t>
@@ -23331,7 +23331,7 @@
       <c r="M86" s="1" t="n"/>
       <c r="N86" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>Pgk_Rna</t>
@@ -23363,7 +23363,7 @@
       <c r="M87" s="1" t="n"/>
       <c r="N87" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>Pgm_Protein</t>
@@ -23395,7 +23395,7 @@
       <c r="M88" s="1" t="n"/>
       <c r="N88" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>Pgm_Rna</t>
@@ -23427,7 +23427,7 @@
       <c r="M89" s="1" t="n"/>
       <c r="N89" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>PHE</t>
@@ -23459,7 +23459,7 @@
       <c r="M90" s="1" t="n"/>
       <c r="N90" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>PhePhe</t>
@@ -23495,7 +23495,7 @@
       </c>
       <c r="N91" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Pi</t>
@@ -23531,7 +23531,7 @@
       </c>
       <c r="N92" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Protein</t>
@@ -23563,7 +23563,7 @@
       <c r="M93" s="1" t="n"/>
       <c r="N93" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Rna</t>
@@ -23595,7 +23595,7 @@
       <c r="M94" s="1" t="n"/>
       <c r="N94" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Ppa_Protein</t>
@@ -23627,7 +23627,7 @@
       <c r="M95" s="1" t="n"/>
       <c r="N95" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Ppa_Rna</t>
@@ -23659,7 +23659,7 @@
       <c r="M96" s="1" t="n"/>
       <c r="N96" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>PPi</t>
@@ -23691,7 +23691,7 @@
       <c r="M97" s="1" t="n"/>
       <c r="N97" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>PRO</t>
@@ -23723,7 +23723,7 @@
       <c r="M98" s="1" t="n"/>
       <c r="N98" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>ProPro</t>
@@ -23759,7 +23759,7 @@
       </c>
       <c r="N99" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>PRPP</t>
@@ -23791,7 +23791,7 @@
       <c r="M100" s="1" t="n"/>
       <c r="N100" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Prs_Protein</t>
@@ -23823,7 +23823,7 @@
       <c r="M101" s="1" t="n"/>
       <c r="N101" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Prs_Rna</t>
@@ -23855,7 +23855,7 @@
       <c r="M102" s="1" t="n"/>
       <c r="N102" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
           <t>Pts_Protein</t>
@@ -23887,7 +23887,7 @@
       <c r="M103" s="1" t="n"/>
       <c r="N103" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="1" t="inlineStr">
         <is>
           <t>Pts_Rna</t>
@@ -23919,7 +23919,7 @@
       <c r="M104" s="1" t="n"/>
       <c r="N104" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="1" t="inlineStr">
         <is>
           <t>Pyk_Protein</t>
@@ -23951,7 +23951,7 @@
       <c r="M105" s="1" t="n"/>
       <c r="N105" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="1" t="inlineStr">
         <is>
           <t>Pyk_Rna</t>
@@ -23983,7 +23983,7 @@
       <c r="M106" s="1" t="n"/>
       <c r="N106" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="1" t="inlineStr">
         <is>
           <t>PYR</t>
@@ -24015,7 +24015,7 @@
       <c r="M107" s="1" t="n"/>
       <c r="N107" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
           <t>PyrH_Protein</t>
@@ -24047,7 +24047,7 @@
       <c r="M108" s="1" t="n"/>
       <c r="N108" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
           <t>PyrH_Rna</t>
@@ -24079,7 +24079,7 @@
       <c r="M109" s="1" t="n"/>
       <c r="N109" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
           <t>R5P</t>
@@ -24111,7 +24111,7 @@
       <c r="M110" s="1" t="n"/>
       <c r="N110" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
           <t>Ribosome_Protein</t>
@@ -24143,7 +24143,7 @@
       <c r="M111" s="1" t="n"/>
       <c r="N111" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
           <t>Ribosome_Rna</t>
@@ -24175,7 +24175,7 @@
       <c r="M112" s="1" t="n"/>
       <c r="N112" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
           <t>RL5P</t>
@@ -24207,7 +24207,7 @@
       <c r="M113" s="1" t="n"/>
       <c r="N113" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
           <t>RnaPolymerase_Protein</t>
@@ -24239,7 +24239,7 @@
       <c r="M114" s="1" t="n"/>
       <c r="N114" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="1" t="inlineStr">
         <is>
           <t>RnaPolymerase_Rna</t>
@@ -24271,7 +24271,7 @@
       <c r="M115" s="1" t="n"/>
       <c r="N115" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="1" t="inlineStr">
         <is>
           <t>Rnase_Protein</t>
@@ -24303,7 +24303,7 @@
       <c r="M116" s="1" t="n"/>
       <c r="N116" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="1" t="inlineStr">
         <is>
           <t>Rnase_Rna</t>
@@ -24335,7 +24335,7 @@
       <c r="M117" s="1" t="n"/>
       <c r="N117" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Rpe_Protein</t>
@@ -24367,7 +24367,7 @@
       <c r="M118" s="1" t="n"/>
       <c r="N118" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Rpe_Rna</t>
@@ -24399,7 +24399,7 @@
       <c r="M119" s="1" t="n"/>
       <c r="N119" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="1" t="inlineStr">
         <is>
           <t>S7P</t>
@@ -24431,7 +24431,7 @@
       <c r="M120" s="1" t="n"/>
       <c r="N120" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
           <t>SER</t>
@@ -24463,7 +24463,7 @@
       <c r="M121" s="1" t="n"/>
       <c r="N121" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
           <t>SerSer</t>
@@ -24499,7 +24499,7 @@
       </c>
       <c r="N122" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
           <t>T3P1</t>
@@ -24531,7 +24531,7 @@
       <c r="M123" s="1" t="n"/>
       <c r="N123" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="1" t="inlineStr">
         <is>
           <t>T3P2</t>
@@ -24563,7 +24563,7 @@
       <c r="M124" s="1" t="n"/>
       <c r="N124" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="1" t="inlineStr">
         <is>
           <t>THR</t>
@@ -24595,7 +24595,7 @@
       <c r="M125" s="1" t="n"/>
       <c r="N125" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
           <t>ThrThr</t>
@@ -24631,7 +24631,7 @@
       </c>
       <c r="N126" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
           <t>Tim_Protein</t>
@@ -24663,7 +24663,7 @@
       <c r="M127" s="1" t="n"/>
       <c r="N127" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="1" t="inlineStr">
         <is>
           <t>Tim_Rna</t>
@@ -24695,7 +24695,7 @@
       <c r="M128" s="1" t="n"/>
       <c r="N128" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="1" t="inlineStr">
         <is>
           <t>TklB_Protein</t>
@@ -24727,7 +24727,7 @@
       <c r="M129" s="1" t="n"/>
       <c r="N129" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
           <t>TklB_Rna</t>
@@ -24759,7 +24759,7 @@
       <c r="M130" s="1" t="n"/>
       <c r="N130" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
           <t>TRP</t>
@@ -24791,7 +24791,7 @@
       <c r="M131" s="1" t="n"/>
       <c r="N131" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="1" t="inlineStr">
         <is>
           <t>TrpTrp</t>
@@ -24827,7 +24827,7 @@
       </c>
       <c r="N132" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="1" t="inlineStr">
         <is>
           <t>TYR</t>
@@ -24859,7 +24859,7 @@
       <c r="M133" s="1" t="n"/>
       <c r="N133" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
           <t>TyrTyr</t>
@@ -24895,7 +24895,7 @@
       </c>
       <c r="N134" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
           <t>Udk_Protein</t>
@@ -24927,7 +24927,7 @@
       <c r="M135" s="1" t="n"/>
       <c r="N135" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
           <t>Udk_Rna</t>
@@ -24959,7 +24959,7 @@
       <c r="M136" s="1" t="n"/>
       <c r="N136" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
           <t>UDP</t>
@@ -24991,7 +24991,7 @@
       <c r="M137" s="1" t="n"/>
       <c r="N137" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
           <t>UMP</t>
@@ -25023,7 +25023,7 @@
       <c r="M138" s="1" t="n"/>
       <c r="N138" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
           <t>Upp_Protein</t>
@@ -25055,7 +25055,7 @@
       <c r="M139" s="1" t="n"/>
       <c r="N139" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
           <t>Upp_Rna</t>
@@ -25087,7 +25087,7 @@
       <c r="M140" s="1" t="n"/>
       <c r="N140" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
           <t>URA</t>
@@ -25123,7 +25123,7 @@
       </c>
       <c r="N141" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
           <t>URI</t>
@@ -25155,7 +25155,7 @@
       <c r="M142" s="1" t="n"/>
       <c r="N142" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
           <t>UTP</t>
@@ -25191,7 +25191,7 @@
       </c>
       <c r="N143" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
           <t>VAL</t>
@@ -25223,7 +25223,7 @@
       <c r="M144" s="1" t="n"/>
       <c r="N144" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
           <t>ValVal</t>
@@ -25296,8 +25296,8 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -25310,28 +25310,28 @@
   <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="28.7083333333333"/>
-    <col customWidth="1" max="10" min="2" style="4" width="16.3916666666667"/>
-    <col customWidth="1" max="1026" min="11" style="4" width="9.108333333333331"/>
+    <col width="28.7083333333333" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="4" min="2" max="10"/>
+    <col width="9.108333333333331" customWidth="1" style="4" min="11" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -25383,7 +25383,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>AD[c]</t>
@@ -25416,7 +25416,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>AD[e]</t>
@@ -25443,7 +25443,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Adk_Protein[c]</t>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="I5" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Adk_Rna[c]</t>
@@ -25489,7 +25489,7 @@
       </c>
       <c r="I6" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ADP[c]</t>
@@ -25512,7 +25512,7 @@
       </c>
       <c r="I7" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>ALA[c]</t>
@@ -25535,7 +25535,7 @@
       </c>
       <c r="I8" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>AlaAla[c]</t>
@@ -25558,7 +25558,7 @@
       </c>
       <c r="I9" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>AlaAla[e]</t>
@@ -25581,7 +25581,7 @@
       </c>
       <c r="I10" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="11">
+    <row r="11" ht="15.1" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>AMP[c]</t>
@@ -25610,7 +25610,7 @@
       <c r="G11" s="1" t="n"/>
       <c r="I11" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="12">
+    <row r="12" ht="15.1" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Apt_Protein[c]</t>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="I12" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="13">
+    <row r="13" ht="15.1" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Apt_Rna[c]</t>
@@ -25656,7 +25656,7 @@
       </c>
       <c r="I13" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="14">
+    <row r="14" ht="15.1" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>ARG[c]</t>
@@ -25679,7 +25679,7 @@
       </c>
       <c r="I14" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="15">
+    <row r="15" ht="15.1" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t>ArgArg[c]</t>
@@ -25702,7 +25702,7 @@
       </c>
       <c r="I15" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="16">
+    <row r="16" ht="15.1" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
           <t>ArgArg[e]</t>
@@ -25725,7 +25725,7 @@
       </c>
       <c r="I16" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="17">
+    <row r="17" ht="15.1" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>ASN[c]</t>
@@ -25748,7 +25748,7 @@
       </c>
       <c r="I17" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="18">
+    <row r="18" ht="15.1" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
           <t>AsnAsn[c]</t>
@@ -25771,7 +25771,7 @@
       </c>
       <c r="I18" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="19">
+    <row r="19" ht="15.1" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t>AsnAsn[e]</t>
@@ -25794,7 +25794,7 @@
       </c>
       <c r="I19" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="20">
+    <row r="20" ht="15.1" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t>ASP[c]</t>
@@ -25817,7 +25817,7 @@
       </c>
       <c r="I20" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="21">
+    <row r="21" ht="15.1" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>AspAsp[c]</t>
@@ -25840,7 +25840,7 @@
       </c>
       <c r="I21" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="22">
+    <row r="22" ht="15.1" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>AspAsp[e]</t>
@@ -25863,7 +25863,7 @@
       </c>
       <c r="I22" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="23">
+    <row r="23" ht="15.1" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
           <t>ATP[c]</t>
@@ -25886,7 +25886,7 @@
       </c>
       <c r="I23" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="24">
+    <row r="24" ht="15.1" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
           <t>CDP[c]</t>
@@ -25909,7 +25909,7 @@
       </c>
       <c r="I24" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="25">
+    <row r="25" ht="15.1" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Cmk_Protein[c]</t>
@@ -25932,7 +25932,7 @@
       </c>
       <c r="I25" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="26">
+    <row r="26" ht="15.1" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Cmk_Rna[c]</t>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="I26" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="27">
+    <row r="27" ht="15.1" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>CMP[c]</t>
@@ -25984,7 +25984,7 @@
       <c r="G27" s="1" t="n"/>
       <c r="I27" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="28">
+    <row r="28" ht="15.1" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
           <t>CO2[c]</t>
@@ -26007,7 +26007,7 @@
       </c>
       <c r="I28" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="29">
+    <row r="29" ht="15.1" customHeight="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
           <t>CO2[e]</t>
@@ -26030,7 +26030,7 @@
       </c>
       <c r="I29" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="30">
+    <row r="30" ht="15.1" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
           <t>CTP[c]</t>
@@ -26053,7 +26053,7 @@
       </c>
       <c r="I30" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="31">
+    <row r="31" ht="15.1" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>CYS[c]</t>
@@ -26076,7 +26076,7 @@
       </c>
       <c r="I31" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="32">
+    <row r="32" ht="15.1" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
           <t>CysCys[c]</t>
@@ -26099,7 +26099,7 @@
       </c>
       <c r="I32" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="33">
+    <row r="33" ht="15.1" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>CysCys[e]</t>
@@ -26122,7 +26122,7 @@
       </c>
       <c r="I33" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="34">
+    <row r="34" ht="15.1" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
           <t>CYTD[c]</t>
@@ -26145,7 +26145,7 @@
       </c>
       <c r="I34" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="35">
+    <row r="35" ht="15.1" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
           <t>CYTD[e]</t>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="I35" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="36">
+    <row r="36" ht="15.1" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
           <t>DPG[c]</t>
@@ -26191,7 +26191,7 @@
       </c>
       <c r="I36" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="37">
+    <row r="37" ht="15.1" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
           <t>E4P[c]</t>
@@ -26214,7 +26214,7 @@
       </c>
       <c r="I37" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="38">
+    <row r="38" ht="15.1" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
           <t>Eno_Protein[c]</t>
@@ -26237,7 +26237,7 @@
       </c>
       <c r="I38" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="39">
+    <row r="39" ht="15.1" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
           <t>Eno_Rna[c]</t>
@@ -26260,7 +26260,7 @@
       </c>
       <c r="I39" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="40">
+    <row r="40" ht="15.1" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
           <t>F6P[c]</t>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="I40" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="41">
+    <row r="41" ht="15.1" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
           <t>Fba_Protein[c]</t>
@@ -26306,7 +26306,7 @@
       </c>
       <c r="I41" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="42">
+    <row r="42" ht="15.1" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
           <t>Fba_Rna[c]</t>
@@ -26329,7 +26329,7 @@
       </c>
       <c r="I42" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="43">
+    <row r="43" ht="15.1" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
           <t>FDP[c]</t>
@@ -26352,7 +26352,7 @@
       </c>
       <c r="I43" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="44">
+    <row r="44" ht="15.1" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
           <t>G2P[c]</t>
@@ -26375,7 +26375,7 @@
       </c>
       <c r="I44" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="45">
+    <row r="45" ht="15.1" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
           <t>G3P[c]</t>
@@ -26398,7 +26398,7 @@
       </c>
       <c r="I45" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="46">
+    <row r="46" ht="15.1" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
           <t>G6P[c]</t>
@@ -26421,7 +26421,7 @@
       </c>
       <c r="I46" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="47">
+    <row r="47" ht="15.1" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
           <t>Gap_Protein[c]</t>
@@ -26444,7 +26444,7 @@
       </c>
       <c r="I47" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="48">
+    <row r="48" ht="15.1" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
           <t>Gap_Rna[c]</t>
@@ -26467,7 +26467,7 @@
       </c>
       <c r="I48" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="49">
+    <row r="49" ht="15.1" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
           <t>GDP[c]</t>
@@ -26490,7 +26490,7 @@
       </c>
       <c r="I49" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="50">
+    <row r="50" ht="15.1" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
           <t>Gk_Protein[c]</t>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="I50" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="51">
+    <row r="51" ht="15.1" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
           <t>Gk_Rna[c]</t>
@@ -26536,7 +26536,7 @@
       </c>
       <c r="I51" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="52">
+    <row r="52" ht="15.1" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
           <t>GLC[e]</t>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="I52" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="53">
+    <row r="53" ht="15.1" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
           <t>GLN[c]</t>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="I53" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="54">
+    <row r="54" ht="15.1" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
           <t>GlnGln[c]</t>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="I54" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="55">
+    <row r="55" ht="15.1" customHeight="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
           <t>GlnGln[e]</t>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="I55" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="56">
+    <row r="56" ht="15.1" customHeight="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
           <t>GLU[c]</t>
@@ -26651,7 +26651,7 @@
       </c>
       <c r="I56" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="57">
+    <row r="57" ht="15.1" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
           <t>GluGlu[c]</t>
@@ -26674,7 +26674,7 @@
       </c>
       <c r="I57" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="58">
+    <row r="58" ht="15.1" customHeight="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
           <t>GluGlu[e]</t>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="I58" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="59">
+    <row r="59" ht="15.1" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
           <t>GLY[c]</t>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="I59" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="60">
+    <row r="60" ht="15.1" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
           <t>GlyGly[c]</t>
@@ -26743,7 +26743,7 @@
       </c>
       <c r="I60" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="61">
+    <row r="61" ht="15.1" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
           <t>GlyGly[e]</t>
@@ -26766,7 +26766,7 @@
       </c>
       <c r="I61" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="62">
+    <row r="62" ht="15.1" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
           <t>GMP[c]</t>
@@ -26789,7 +26789,7 @@
       </c>
       <c r="I62" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="63">
+    <row r="63" ht="15.1" customHeight="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
           <t>GN[c]</t>
@@ -26812,7 +26812,7 @@
       </c>
       <c r="I63" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="64">
+    <row r="64" ht="15.1" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
           <t>GN[e]</t>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="I64" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="65">
+    <row r="65" ht="15.1" customHeight="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
           <t>GTP[c]</t>
@@ -26858,7 +26858,7 @@
       </c>
       <c r="I65" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="66">
+    <row r="66" ht="15.1" customHeight="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
           <t>H2O[c]</t>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="I66" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="67">
+    <row r="67" ht="15.1" customHeight="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
           <t>H2O[e]</t>
@@ -26904,7 +26904,7 @@
       </c>
       <c r="I67" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="68">
+    <row r="68" ht="15.1" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
           <t>H[c]</t>
@@ -26927,7 +26927,7 @@
       </c>
       <c r="I68" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="69">
+    <row r="69" ht="15.1" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
           <t>H[e]</t>
@@ -26950,7 +26950,7 @@
       </c>
       <c r="I69" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="70">
+    <row r="70" ht="15.1" customHeight="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
           <t>HIS[c]</t>
@@ -26973,7 +26973,7 @@
       </c>
       <c r="I70" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="71">
+    <row r="71" ht="15.1" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
           <t>HisHis[c]</t>
@@ -26996,7 +26996,7 @@
       </c>
       <c r="I71" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="72">
+    <row r="72" ht="15.1" customHeight="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
           <t>HisHis[e]</t>
@@ -27019,7 +27019,7 @@
       </c>
       <c r="I72" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="73">
+    <row r="73" ht="15.1" customHeight="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
           <t>Hpt_Protein[c]</t>
@@ -27042,7 +27042,7 @@
       </c>
       <c r="I73" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="74">
+    <row r="74" ht="15.1" customHeight="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
           <t>Hpt_Rna[c]</t>
@@ -27065,7 +27065,7 @@
       </c>
       <c r="I74" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="75">
+    <row r="75" ht="15.1" customHeight="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
           <t>ILE[c]</t>
@@ -27088,7 +27088,7 @@
       </c>
       <c r="I75" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="76">
+    <row r="76" ht="15.1" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
           <t>IleIle[c]</t>
@@ -27111,7 +27111,7 @@
       </c>
       <c r="I76" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="77">
+    <row r="77" ht="15.1" customHeight="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
           <t>IleIle[e]</t>
@@ -27134,7 +27134,7 @@
       </c>
       <c r="I77" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="78">
+    <row r="78" ht="15.1" customHeight="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
           <t>LAC[c]</t>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="I78" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="79">
+    <row r="79" ht="15.1" customHeight="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
           <t>LAC[e]</t>
@@ -27180,7 +27180,7 @@
       </c>
       <c r="I79" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="80">
+    <row r="80" ht="15.1" customHeight="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
           <t>LacA_Protein[c]</t>
@@ -27203,7 +27203,7 @@
       </c>
       <c r="I80" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="81">
+    <row r="81" ht="15.1" customHeight="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
           <t>LacA_Rna[c]</t>
@@ -27226,7 +27226,7 @@
       </c>
       <c r="I81" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="82">
+    <row r="82" ht="15.1" customHeight="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
           <t>Ldh_Protein[c]</t>
@@ -27249,7 +27249,7 @@
       </c>
       <c r="I82" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="83">
+    <row r="83" ht="15.1" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
           <t>Ldh_Rna[c]</t>
@@ -27272,7 +27272,7 @@
       </c>
       <c r="I83" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="84">
+    <row r="84" ht="15.1" customHeight="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
           <t>LEU[c]</t>
@@ -27295,7 +27295,7 @@
       </c>
       <c r="I84" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="85">
+    <row r="85" ht="15.1" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
           <t>LeuLeu[c]</t>
@@ -27318,7 +27318,7 @@
       </c>
       <c r="I85" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="86">
+    <row r="86" ht="15.1" customHeight="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
           <t>LeuLeu[e]</t>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="I86" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="87">
+    <row r="87" ht="15.1" customHeight="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
           <t>LYS[c]</t>
@@ -27364,7 +27364,7 @@
       </c>
       <c r="I87" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="88">
+    <row r="88" ht="15.1" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
           <t>LysLys[c]</t>
@@ -27387,7 +27387,7 @@
       </c>
       <c r="I88" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="89">
+    <row r="89" ht="15.1" customHeight="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
           <t>LysLys[e]</t>
@@ -27410,7 +27410,7 @@
       </c>
       <c r="I89" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="90">
+    <row r="90" ht="15.1" customHeight="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
           <t>MET[c]</t>
@@ -27433,7 +27433,7 @@
       </c>
       <c r="I90" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="91">
+    <row r="91" ht="15.1" customHeight="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
           <t>MetMet[c]</t>
@@ -27456,7 +27456,7 @@
       </c>
       <c r="I91" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="92">
+    <row r="92" ht="15.1" customHeight="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
           <t>MetMet[e]</t>
@@ -27479,7 +27479,7 @@
       </c>
       <c r="I92" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="93">
+    <row r="93" ht="15.1" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
           <t>NAD[c]</t>
@@ -27502,7 +27502,7 @@
       </c>
       <c r="I93" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="94">
+    <row r="94" ht="15.1" customHeight="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
           <t>NAD[e]</t>
@@ -27525,7 +27525,7 @@
       </c>
       <c r="I94" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="95">
+    <row r="95" ht="15.1" customHeight="1">
       <c r="A95" s="4" t="inlineStr">
         <is>
           <t>NADH[c]</t>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="I95" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="96">
+    <row r="96" ht="15.1" customHeight="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
           <t>Nox_Protein[c]</t>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="I96" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="97">
+    <row r="97" ht="15.1" customHeight="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
           <t>Nox_Rna[c]</t>
@@ -27594,7 +27594,7 @@
       </c>
       <c r="I97" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="98">
+    <row r="98" ht="15.1" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
           <t>O2[c]</t>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="I98" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="99">
+    <row r="99" ht="15.1" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
           <t>O2[e]</t>
@@ -27640,7 +27640,7 @@
       </c>
       <c r="I99" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="100">
+    <row r="100" ht="15.1" customHeight="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
           <t>PEP[c]</t>
@@ -27663,7 +27663,7 @@
       </c>
       <c r="I100" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="101">
+    <row r="101" ht="15.1" customHeight="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Protein[c]</t>
@@ -27686,7 +27686,7 @@
       </c>
       <c r="I101" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="102">
+    <row r="102" ht="15.1" customHeight="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
           <t>PeptAbcTransporter_Rna[c]</t>
@@ -27709,7 +27709,7 @@
       </c>
       <c r="I102" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="103">
+    <row r="103" ht="15.1" customHeight="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
           <t>Pfk_Protein[c]</t>
@@ -27732,7 +27732,7 @@
       </c>
       <c r="I103" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="104">
+    <row r="104" ht="15.1" customHeight="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
           <t>Pfk_Rna[c]</t>
@@ -27755,7 +27755,7 @@
       </c>
       <c r="I104" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="105">
+    <row r="105" ht="15.1" customHeight="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
           <t>PgiB_Protein[c]</t>
@@ -27778,7 +27778,7 @@
       </c>
       <c r="I105" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="106">
+    <row r="106" ht="15.1" customHeight="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
           <t>PgiB_Rna[c]</t>
@@ -27801,7 +27801,7 @@
       </c>
       <c r="I106" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="107">
+    <row r="107" ht="15.1" customHeight="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
           <t>Pgk_Protein[c]</t>
@@ -27824,7 +27824,7 @@
       </c>
       <c r="I107" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="108">
+    <row r="108" ht="15.1" customHeight="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
           <t>Pgk_Rna[c]</t>
@@ -27847,7 +27847,7 @@
       </c>
       <c r="I108" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="109">
+    <row r="109" ht="15.1" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
           <t>Pgm_Protein[c]</t>
@@ -27870,7 +27870,7 @@
       </c>
       <c r="I109" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="110">
+    <row r="110" ht="15.1" customHeight="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
           <t>Pgm_Rna[c]</t>
@@ -27893,7 +27893,7 @@
       </c>
       <c r="I110" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="111">
+    <row r="111" ht="15.1" customHeight="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
           <t>PHE[c]</t>
@@ -27916,7 +27916,7 @@
       </c>
       <c r="I111" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="112">
+    <row r="112" ht="15.1" customHeight="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
           <t>PhePhe[c]</t>
@@ -27939,7 +27939,7 @@
       </c>
       <c r="I112" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="113">
+    <row r="113" ht="15.1" customHeight="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
           <t>PhePhe[e]</t>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="I113" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="114">
+    <row r="114" ht="15.1" customHeight="1">
       <c r="A114" s="4" t="inlineStr">
         <is>
           <t>Pi[c]</t>
@@ -27985,7 +27985,7 @@
       </c>
       <c r="I114" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="115">
+    <row r="115" ht="15.1" customHeight="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
           <t>Pi[e]</t>
@@ -28008,7 +28008,7 @@
       </c>
       <c r="I115" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="116">
+    <row r="116" ht="15.1" customHeight="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Protein[c]</t>
@@ -28031,7 +28031,7 @@
       </c>
       <c r="I116" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="117">
+    <row r="117" ht="15.1" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
           <t>PiAbcTransporter_Rna[c]</t>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="I117" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="118">
+    <row r="118" ht="15.1" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
           <t>Ppa_Protein[c]</t>
@@ -28077,7 +28077,7 @@
       </c>
       <c r="I118" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="119">
+    <row r="119" ht="15.1" customHeight="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
           <t>Ppa_Rna[c]</t>
@@ -28100,7 +28100,7 @@
       </c>
       <c r="I119" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="120">
+    <row r="120" ht="15.1" customHeight="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
           <t>PPi[c]</t>
@@ -28123,7 +28123,7 @@
       </c>
       <c r="I120" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="121">
+    <row r="121" ht="15.1" customHeight="1">
       <c r="A121" s="4" t="inlineStr">
         <is>
           <t>PRO[c]</t>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="I121" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="122">
+    <row r="122" ht="15.1" customHeight="1">
       <c r="A122" s="4" t="inlineStr">
         <is>
           <t>ProPro[c]</t>
@@ -28169,7 +28169,7 @@
       </c>
       <c r="I122" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="123">
+    <row r="123" ht="15.1" customHeight="1">
       <c r="A123" s="4" t="inlineStr">
         <is>
           <t>ProPro[e]</t>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="I123" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="124">
+    <row r="124" ht="15.1" customHeight="1">
       <c r="A124" s="4" t="inlineStr">
         <is>
           <t>PRPP[c]</t>
@@ -28215,7 +28215,7 @@
       </c>
       <c r="I124" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="125">
+    <row r="125" ht="15.1" customHeight="1">
       <c r="A125" s="4" t="inlineStr">
         <is>
           <t>Prs_Protein[c]</t>
@@ -28238,7 +28238,7 @@
       </c>
       <c r="I125" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="126">
+    <row r="126" ht="15.1" customHeight="1">
       <c r="A126" s="4" t="inlineStr">
         <is>
           <t>Prs_Rna[c]</t>
@@ -28261,7 +28261,7 @@
       </c>
       <c r="I126" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="127">
+    <row r="127" ht="15.1" customHeight="1">
       <c r="A127" s="4" t="inlineStr">
         <is>
           <t>Pts_Protein[c]</t>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="I127" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="128">
+    <row r="128" ht="15.1" customHeight="1">
       <c r="A128" s="4" t="inlineStr">
         <is>
           <t>Pts_Rna[c]</t>
@@ -28307,7 +28307,7 @@
       </c>
       <c r="I128" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="129">
+    <row r="129" ht="15.1" customHeight="1">
       <c r="A129" s="4" t="inlineStr">
         <is>
           <t>Pyk_Protein[c]</t>
@@ -28330,7 +28330,7 @@
       </c>
       <c r="I129" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="130">
+    <row r="130" ht="15.1" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
         <is>
           <t>Pyk_Rna[c]</t>
@@ -28353,7 +28353,7 @@
       </c>
       <c r="I130" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="131">
+    <row r="131" ht="15.1" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
         <is>
           <t>PYR[c]</t>
@@ -28376,7 +28376,7 @@
       </c>
       <c r="I131" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="132">
+    <row r="132" ht="15.1" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
         <is>
           <t>PyrH_Protein[c]</t>
@@ -28399,7 +28399,7 @@
       </c>
       <c r="I132" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="133">
+    <row r="133" ht="15.1" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
         <is>
           <t>PyrH_Rna[c]</t>
@@ -28422,7 +28422,7 @@
       </c>
       <c r="I133" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="134">
+    <row r="134" ht="15.1" customHeight="1">
       <c r="A134" s="4" t="inlineStr">
         <is>
           <t>R5P[c]</t>
@@ -28445,7 +28445,7 @@
       </c>
       <c r="I134" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="135">
+    <row r="135" ht="15.1" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
         <is>
           <t>Ribosome_Protein[c]</t>
@@ -28468,7 +28468,7 @@
       </c>
       <c r="I135" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="136">
+    <row r="136" ht="15.1" customHeight="1">
       <c r="A136" s="4" t="inlineStr">
         <is>
           <t>Ribosome_Rna[c]</t>
@@ -28491,7 +28491,7 @@
       </c>
       <c r="I136" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="137">
+    <row r="137" ht="15.1" customHeight="1">
       <c r="A137" s="4" t="inlineStr">
         <is>
           <t>RL5P[c]</t>
@@ -28514,7 +28514,7 @@
       </c>
       <c r="I137" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="138">
+    <row r="138" ht="15.1" customHeight="1">
       <c r="A138" s="4" t="inlineStr">
         <is>
           <t>RnaPolymerase_Protein[c]</t>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="I138" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="139">
+    <row r="139" ht="15.1" customHeight="1">
       <c r="A139" s="4" t="inlineStr">
         <is>
           <t>RnaPolymerase_Rna[c]</t>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="I139" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="140">
+    <row r="140" ht="15.1" customHeight="1">
       <c r="A140" s="4" t="inlineStr">
         <is>
           <t>Rnase_Protein[c]</t>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="I140" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="141">
+    <row r="141" ht="15.1" customHeight="1">
       <c r="A141" s="4" t="inlineStr">
         <is>
           <t>Rnase_Rna[c]</t>
@@ -28606,7 +28606,7 @@
       </c>
       <c r="I141" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="142">
+    <row r="142" ht="15.1" customHeight="1">
       <c r="A142" s="4" t="inlineStr">
         <is>
           <t>Rpe_Protein[c]</t>
@@ -28629,7 +28629,7 @@
       </c>
       <c r="I142" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="143">
+    <row r="143" ht="15.1" customHeight="1">
       <c r="A143" s="4" t="inlineStr">
         <is>
           <t>Rpe_Rna[c]</t>
@@ -28652,7 +28652,7 @@
       </c>
       <c r="I143" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="144">
+    <row r="144" ht="15.1" customHeight="1">
       <c r="A144" s="4" t="inlineStr">
         <is>
           <t>S7P[c]</t>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="I144" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="145">
+    <row r="145" ht="15.1" customHeight="1">
       <c r="A145" s="4" t="inlineStr">
         <is>
           <t>SER[c]</t>
@@ -28698,7 +28698,7 @@
       </c>
       <c r="I145" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="146">
+    <row r="146" ht="15.1" customHeight="1">
       <c r="A146" s="4" t="inlineStr">
         <is>
           <t>SerSer[c]</t>
@@ -28721,7 +28721,7 @@
       </c>
       <c r="I146" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="147">
+    <row r="147" ht="15.1" customHeight="1">
       <c r="A147" s="4" t="inlineStr">
         <is>
           <t>SerSer[e]</t>
@@ -28744,7 +28744,7 @@
       </c>
       <c r="I147" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="148">
+    <row r="148" ht="15.1" customHeight="1">
       <c r="A148" s="4" t="inlineStr">
         <is>
           <t>T3P1[c]</t>
@@ -28767,7 +28767,7 @@
       </c>
       <c r="I148" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="149">
+    <row r="149" ht="15.1" customHeight="1">
       <c r="A149" s="4" t="inlineStr">
         <is>
           <t>T3P2[c]</t>
@@ -28790,7 +28790,7 @@
       </c>
       <c r="I149" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="150">
+    <row r="150" ht="15.1" customHeight="1">
       <c r="A150" s="4" t="inlineStr">
         <is>
           <t>THR[c]</t>
@@ -28813,7 +28813,7 @@
       </c>
       <c r="I150" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="151">
+    <row r="151" ht="15.1" customHeight="1">
       <c r="A151" s="4" t="inlineStr">
         <is>
           <t>ThrThr[c]</t>
@@ -28836,7 +28836,7 @@
       </c>
       <c r="I151" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="152">
+    <row r="152" ht="15.1" customHeight="1">
       <c r="A152" s="4" t="inlineStr">
         <is>
           <t>ThrThr[e]</t>
@@ -28859,7 +28859,7 @@
       </c>
       <c r="I152" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="153">
+    <row r="153" ht="15.1" customHeight="1">
       <c r="A153" s="4" t="inlineStr">
         <is>
           <t>Tim_Protein[c]</t>
@@ -28882,7 +28882,7 @@
       </c>
       <c r="I153" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="154">
+    <row r="154" ht="15.1" customHeight="1">
       <c r="A154" s="4" t="inlineStr">
         <is>
           <t>Tim_Rna[c]</t>
@@ -28905,7 +28905,7 @@
       </c>
       <c r="I154" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="155">
+    <row r="155" ht="15.1" customHeight="1">
       <c r="A155" s="4" t="inlineStr">
         <is>
           <t>TklB_Protein[c]</t>
@@ -28928,7 +28928,7 @@
       </c>
       <c r="I155" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="156">
+    <row r="156" ht="15.1" customHeight="1">
       <c r="A156" s="4" t="inlineStr">
         <is>
           <t>TklB_Rna[c]</t>
@@ -28951,7 +28951,7 @@
       </c>
       <c r="I156" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="157">
+    <row r="157" ht="15.1" customHeight="1">
       <c r="A157" s="4" t="inlineStr">
         <is>
           <t>TRP[c]</t>
@@ -28974,7 +28974,7 @@
       </c>
       <c r="I157" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="158">
+    <row r="158" ht="15.1" customHeight="1">
       <c r="A158" s="4" t="inlineStr">
         <is>
           <t>TrpTrp[c]</t>
@@ -28997,7 +28997,7 @@
       </c>
       <c r="I158" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="159">
+    <row r="159" ht="15.1" customHeight="1">
       <c r="A159" s="4" t="inlineStr">
         <is>
           <t>TrpTrp[e]</t>
@@ -29020,7 +29020,7 @@
       </c>
       <c r="I159" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="160">
+    <row r="160" ht="15.1" customHeight="1">
       <c r="A160" s="4" t="inlineStr">
         <is>
           <t>TYR[c]</t>
@@ -29043,7 +29043,7 @@
       </c>
       <c r="I160" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="161">
+    <row r="161" ht="15.1" customHeight="1">
       <c r="A161" s="4" t="inlineStr">
         <is>
           <t>TyrTyr[c]</t>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="I161" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="162">
+    <row r="162" ht="15.1" customHeight="1">
       <c r="A162" s="4" t="inlineStr">
         <is>
           <t>TyrTyr[e]</t>
@@ -29089,7 +29089,7 @@
       </c>
       <c r="I162" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="163">
+    <row r="163" ht="15.1" customHeight="1">
       <c r="A163" s="4" t="inlineStr">
         <is>
           <t>Udk_Protein[c]</t>
@@ -29112,7 +29112,7 @@
       </c>
       <c r="I163" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="164">
+    <row r="164" ht="15.1" customHeight="1">
       <c r="A164" s="4" t="inlineStr">
         <is>
           <t>Udk_Rna[c]</t>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="I164" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="165">
+    <row r="165" ht="15.1" customHeight="1">
       <c r="A165" s="4" t="inlineStr">
         <is>
           <t>UDP[c]</t>
@@ -29158,7 +29158,7 @@
       </c>
       <c r="I165" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="166">
+    <row r="166" ht="15.1" customHeight="1">
       <c r="A166" s="4" t="inlineStr">
         <is>
           <t>UMP[c]</t>
@@ -29181,7 +29181,7 @@
       </c>
       <c r="I166" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="167">
+    <row r="167" ht="15.1" customHeight="1">
       <c r="A167" s="4" t="inlineStr">
         <is>
           <t>Upp_Protein[c]</t>
@@ -29204,7 +29204,7 @@
       </c>
       <c r="I167" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="168">
+    <row r="168" ht="15.1" customHeight="1">
       <c r="A168" s="4" t="inlineStr">
         <is>
           <t>Upp_Rna[c]</t>
@@ -29227,7 +29227,7 @@
       </c>
       <c r="I168" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="169">
+    <row r="169" ht="15.1" customHeight="1">
       <c r="A169" s="4" t="inlineStr">
         <is>
           <t>URA[c]</t>
@@ -29250,7 +29250,7 @@
       </c>
       <c r="I169" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="170">
+    <row r="170" ht="15.1" customHeight="1">
       <c r="A170" s="4" t="inlineStr">
         <is>
           <t>URA[e]</t>
@@ -29273,7 +29273,7 @@
       </c>
       <c r="I170" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="171">
+    <row r="171" ht="15.1" customHeight="1">
       <c r="A171" s="4" t="inlineStr">
         <is>
           <t>URI[c]</t>
@@ -29296,7 +29296,7 @@
       </c>
       <c r="I171" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="172">
+    <row r="172" ht="15.1" customHeight="1">
       <c r="A172" s="4" t="inlineStr">
         <is>
           <t>UTP[c]</t>
@@ -29319,7 +29319,7 @@
       </c>
       <c r="I172" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="173">
+    <row r="173" ht="15.1" customHeight="1">
       <c r="A173" s="4" t="inlineStr">
         <is>
           <t>UTP[e]</t>
@@ -29342,7 +29342,7 @@
       </c>
       <c r="I173" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="174">
+    <row r="174" ht="15.1" customHeight="1">
       <c r="A174" s="4" t="inlineStr">
         <is>
           <t>VAL[c]</t>
@@ -29365,7 +29365,7 @@
       </c>
       <c r="I174" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="175">
+    <row r="175" ht="15.1" customHeight="1">
       <c r="A175" s="4" t="inlineStr">
         <is>
           <t>ValVal[c]</t>
@@ -29388,7 +29388,7 @@
       </c>
       <c r="I175" s="28" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="176">
+    <row r="176" ht="15.1" customHeight="1">
       <c r="A176" s="4" t="inlineStr">
         <is>
           <t>ValVal[e]</t>
@@ -29435,8 +29435,8 @@
       <c r="I177" s="28" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -29457,27 +29457,27 @@
   <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I45" pane="bottomRight" sqref="I45"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="36.875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="9.108333333333331"/>
-    <col customWidth="1" max="3" min="3" style="4" width="31.1666666666667"/>
-    <col customWidth="1" max="4" min="4" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="5" style="4" width="12.625"/>
-    <col customWidth="1" max="1026" min="7" style="4" width="8.78333333333333"/>
+    <col width="36.875" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9.108333333333331" customWidth="1" style="4" min="2" max="2"/>
+    <col width="31.1666666666667" customWidth="1" style="4" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="4" min="5" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="7" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -35327,7 +35327,7 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:L176"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/sbml-io-transformed.xlsx
+++ b/tests/fixtures/sbml-io-transformed.xlsx
@@ -1808,7 +1808,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -10287,7 +10287,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -14340,7 +14340,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -15819,7 +15819,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -18224,7 +18224,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -18333,7 +18333,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -18739,7 +18739,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -18825,7 +18825,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19498,7 +19498,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19657,7 +19657,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -19778,7 +19778,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -19881,7 +19881,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -19995,7 +19995,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -20501,7 +20501,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -25327,7 +25327,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -29477,7 +29477,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
